--- a/data_month/zb/邮电通信/邮电业务收入.xlsx
+++ b/data_month/zb/邮电通信/邮电业务收入.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK72"/>
+  <dimension ref="A1:AT72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -614,11 +614,56 @@
           <t>邮政行业业务收入_累计增长</t>
         </is>
       </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>同城快递业务收入</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>固定通信业务收入</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>国际及港澳台快递业务收入</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>异地快递业务收入</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>快递业务收入</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>电信业务收入</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>移动通信业务收入</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>邮政寄递服务收入</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>邮政行业业务收入</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -638,16 +683,16 @@
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>49.1</v>
+        <v>38.1</v>
       </c>
       <c r="S2" t="n">
-        <v>376.2</v>
+        <v>291.7</v>
       </c>
       <c r="T2" t="n">
-        <v>3079.9</v>
+        <v>291.7</v>
       </c>
       <c r="U2" t="n">
-        <v>44.5</v>
+        <v>38.1</v>
       </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
@@ -665,11 +710,22 @@
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="n">
+        <v>291.7</v>
+      </c>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -689,16 +745,16 @@
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>42.6</v>
+        <v>29.6</v>
       </c>
       <c r="S3" t="n">
-        <v>464.2</v>
+        <v>176.3</v>
       </c>
       <c r="T3" t="n">
-        <v>3544.1</v>
+        <v>468</v>
       </c>
       <c r="U3" t="n">
-        <v>44.3</v>
+        <v>34.8</v>
       </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
@@ -716,11 +772,22 @@
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="n">
+        <v>176.3</v>
+      </c>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -740,16 +807,16 @@
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
-        <v>37.283</v>
+        <v>54.9492430022</v>
       </c>
       <c r="S4" t="n">
-        <v>430.281</v>
+        <v>305.117868</v>
       </c>
       <c r="T4" t="n">
-        <v>3974.36</v>
+        <v>773.071792</v>
       </c>
       <c r="U4" t="n">
-        <v>43.497</v>
+        <v>42.0866879411</v>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
@@ -767,11 +834,22 @@
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="n">
+        <v>305.071792</v>
+      </c>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2016年1月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -791,16 +869,16 @@
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>38.1</v>
+        <v>42.0200597191</v>
       </c>
       <c r="S5" t="n">
-        <v>291.7</v>
+        <v>300.903516</v>
       </c>
       <c r="T5" t="n">
-        <v>291.7</v>
+        <v>1073.975308</v>
       </c>
       <c r="U5" t="n">
-        <v>38.1</v>
+        <v>42.0680139216</v>
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
@@ -818,11 +896,22 @@
       <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="n">
+        <v>300.9035160000001</v>
+      </c>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -842,16 +931,16 @@
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>29.6</v>
+        <v>48.2458492079</v>
       </c>
       <c r="S6" t="n">
-        <v>176.3</v>
+        <v>316.589489</v>
       </c>
       <c r="T6" t="n">
-        <v>468</v>
+        <v>0.1390564797</v>
       </c>
       <c r="U6" t="n">
-        <v>34.8</v>
+        <v>43.4288175603</v>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
@@ -869,11 +958,22 @@
       <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="n">
+        <v>0.1390564797</v>
+      </c>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -893,16 +993,16 @@
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
-        <v>54.9492430022</v>
+        <v>43.271850143</v>
       </c>
       <c r="S7" t="n">
-        <v>305.117868</v>
+        <v>324.067542</v>
       </c>
       <c r="T7" t="n">
-        <v>773.071792</v>
+        <v>1714.632339</v>
       </c>
       <c r="U7" t="n">
-        <v>42.0866879411</v>
+        <v>43.3991241782</v>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
@@ -920,11 +1020,22 @@
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="n">
+        <v>1714.4932825203</v>
+      </c>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -944,16 +1055,16 @@
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
-        <v>42.0200597191</v>
+        <v>40.3533243325</v>
       </c>
       <c r="S8" t="n">
-        <v>300.903516</v>
+        <v>311.357948</v>
       </c>
       <c r="T8" t="n">
-        <v>1073.975308</v>
+        <v>2025.990287</v>
       </c>
       <c r="U8" t="n">
-        <v>42.0680139216</v>
+        <v>42.9224717906</v>
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
@@ -971,11 +1082,22 @@
       <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="n">
+        <v>311.3579480000001</v>
+      </c>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -995,16 +1117,16 @@
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>48.2458492079</v>
+        <v>43.61</v>
       </c>
       <c r="S9" t="n">
-        <v>316.589489</v>
+        <v>317.56</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1390564797</v>
+        <v>2343.55</v>
       </c>
       <c r="U9" t="n">
-        <v>43.4288175603</v>
+        <v>43.01</v>
       </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
@@ -1022,11 +1144,22 @@
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="n">
+        <v>317.5597130000001</v>
+      </c>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -1046,16 +1179,16 @@
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>43.271850143</v>
+        <v>50.2</v>
       </c>
       <c r="S10" t="n">
-        <v>324.067542</v>
+        <v>360.16</v>
       </c>
       <c r="T10" t="n">
-        <v>1714.632339</v>
+        <v>2703.71</v>
       </c>
       <c r="U10" t="n">
-        <v>43.3991241782</v>
+        <v>43.93</v>
       </c>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
@@ -1073,11 +1206,22 @@
       <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="n">
+        <v>360.1599999999999</v>
+      </c>
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="inlineStr"/>
+      <c r="AT10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -1097,16 +1241,16 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>40.3533243325</v>
+        <v>49.1</v>
       </c>
       <c r="S11" t="n">
-        <v>311.357948</v>
+        <v>376.2</v>
       </c>
       <c r="T11" t="n">
-        <v>2025.990287</v>
+        <v>3079.9</v>
       </c>
       <c r="U11" t="n">
-        <v>42.9224717906</v>
+        <v>44.5</v>
       </c>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
@@ -1124,11 +1268,22 @@
       <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="n">
+        <v>376.1900000000001</v>
+      </c>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
+      <c r="AT11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -1148,16 +1303,16 @@
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>43.61</v>
+        <v>42.6</v>
       </c>
       <c r="S12" t="n">
-        <v>317.56</v>
+        <v>464.2</v>
       </c>
       <c r="T12" t="n">
-        <v>2343.55</v>
+        <v>3544.1</v>
       </c>
       <c r="U12" t="n">
-        <v>43.01</v>
+        <v>44.3</v>
       </c>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
@@ -1175,11 +1330,22 @@
       <c r="AI12" t="inlineStr"/>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="n">
+        <v>464.1999999999998</v>
+      </c>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
+      <c r="AT12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -1199,16 +1365,16 @@
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="n">
-        <v>50.2</v>
+        <v>37.283</v>
       </c>
       <c r="S13" t="n">
-        <v>360.16</v>
+        <v>430.281</v>
       </c>
       <c r="T13" t="n">
-        <v>2703.71</v>
+        <v>3974.36</v>
       </c>
       <c r="U13" t="n">
-        <v>43.93</v>
+        <v>43.497</v>
       </c>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
@@ -1226,11 +1392,22 @@
       <c r="AI13" t="inlineStr"/>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="n">
+        <v>430.2600000000002</v>
+      </c>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr"/>
+      <c r="AT13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -1238,16 +1415,16 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>13.39</v>
+        <v>6.79</v>
       </c>
       <c r="G14" t="n">
-        <v>308.786641</v>
+        <v>291.395229</v>
       </c>
       <c r="H14" t="n">
-        <v>2982.520905</v>
+        <v>291.395229</v>
       </c>
       <c r="I14" t="n">
-        <v>8.85</v>
+        <v>6.79</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -1258,62 +1435,81 @@
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="n">
-        <v>18.7795</v>
+        <v>6.2269</v>
       </c>
       <c r="S14" t="n">
-        <v>446.8009</v>
+        <v>309.8517</v>
       </c>
       <c r="T14" t="n">
-        <v>3871.8494</v>
+        <v>309.8517</v>
       </c>
       <c r="U14" t="n">
-        <v>25.7147</v>
+        <v>6.2269</v>
       </c>
       <c r="V14" t="n">
-        <v>9.32</v>
+        <v>5.71</v>
       </c>
       <c r="W14" t="n">
-        <v>1036.312415</v>
+        <v>1042.374648</v>
       </c>
       <c r="X14" t="n">
-        <v>10660.29211</v>
+        <v>1042.374648</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.33</v>
+        <v>5.71</v>
       </c>
       <c r="Z14" t="n">
-        <v>7.68</v>
+        <v>5.3</v>
       </c>
       <c r="AA14" t="n">
-        <v>727.525774</v>
+        <v>750.979419</v>
       </c>
       <c r="AB14" t="n">
-        <v>7677.771201</v>
+        <v>750.979419</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.38</v>
+        <v>5.3</v>
       </c>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="n">
-        <v>19.3932</v>
+        <v>11.2425</v>
       </c>
       <c r="AI14" t="n">
-        <v>577.236</v>
+        <v>491.7489</v>
       </c>
       <c r="AJ14" t="n">
-        <v>5269.4581</v>
+        <v>491.7489</v>
       </c>
       <c r="AK14" t="n">
-        <v>23.5097</v>
+        <v>11.2425</v>
+      </c>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="n">
+        <v>291.395229</v>
+      </c>
+      <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="n">
+        <v>309.8517</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>1042.374648</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>750.979419</v>
+      </c>
+      <c r="AS14" t="inlineStr"/>
+      <c r="AT14" t="n">
+        <v>491.7489</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -1321,16 +1517,16 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>2.91</v>
+        <v>12.49</v>
       </c>
       <c r="G15" t="n">
-        <v>278.427792</v>
+        <v>291.3235</v>
       </c>
       <c r="H15" t="n">
-        <v>3260.948697</v>
+        <v>582.7188</v>
       </c>
       <c r="I15" t="n">
-        <v>8.32</v>
+        <v>9.57</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -1341,62 +1537,81 @@
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="n">
-        <v>21.82079188</v>
+        <v>65.7749</v>
       </c>
       <c r="S15" t="n">
-        <v>565.5025450000001</v>
+        <v>292.2037</v>
       </c>
       <c r="T15" t="n">
-        <v>4437.351954</v>
+        <v>602.0554</v>
       </c>
       <c r="U15" t="n">
-        <v>25.20465264</v>
+        <v>28.657</v>
       </c>
       <c r="V15" t="n">
-        <v>8.5</v>
+        <v>6.11</v>
       </c>
       <c r="W15" t="n">
-        <v>983.356899</v>
+        <v>1032.2878</v>
       </c>
       <c r="X15" t="n">
-        <v>11643.64901</v>
+        <v>2074.662</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.51</v>
+        <v>5.91</v>
       </c>
       <c r="Z15" t="n">
-        <v>10.88</v>
+        <v>3.8</v>
       </c>
       <c r="AA15" t="n">
-        <v>704.929207</v>
+        <v>740.9642</v>
       </c>
       <c r="AB15" t="n">
-        <v>8382.700408000001</v>
+        <v>1491.9436</v>
       </c>
       <c r="AC15" t="n">
-        <v>5.83</v>
+        <v>4.55</v>
       </c>
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="inlineStr"/>
       <c r="AH15" t="n">
-        <v>22.59503661</v>
+        <v>40.9793</v>
       </c>
       <c r="AI15" t="n">
-        <v>699.291932</v>
+        <v>435.1711</v>
       </c>
       <c r="AJ15" t="n">
-        <v>5968.750053</v>
+        <v>926.92</v>
       </c>
       <c r="AK15" t="n">
-        <v>23.40185843</v>
+        <v>23.4694</v>
+      </c>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="n">
+        <v>291.323571</v>
+      </c>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="n">
+        <v>292.2037</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>1032.287352</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>740.9641810000001</v>
+      </c>
+      <c r="AS15" t="inlineStr"/>
+      <c r="AT15" t="n">
+        <v>435.1711</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -1404,16 +1619,16 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>9.029999999999999</v>
+        <v>8.68</v>
       </c>
       <c r="G16" t="n">
-        <v>287.761375</v>
+        <v>296.944402</v>
       </c>
       <c r="H16" t="n">
-        <v>3548.710072</v>
+        <v>879.66323</v>
       </c>
       <c r="I16" t="n">
-        <v>8.380000000000001</v>
+        <v>9.26</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -1424,62 +1639,81 @@
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="n">
-        <v>20.79476201</v>
+        <v>25.3792</v>
       </c>
       <c r="S16" t="n">
-        <v>519.756922</v>
+        <v>382.5543</v>
       </c>
       <c r="T16" t="n">
-        <v>4957.108876</v>
+        <v>984.6097</v>
       </c>
       <c r="U16" t="n">
-        <v>24.72721926</v>
+        <v>27.3633</v>
       </c>
       <c r="V16" t="n">
-        <v>5.18</v>
+        <v>5.28</v>
       </c>
       <c r="W16" t="n">
-        <v>976.529283</v>
+        <v>1056.876431</v>
       </c>
       <c r="X16" t="n">
-        <v>12620.17829</v>
+        <v>3131.538938</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.41</v>
+        <v>5.7</v>
       </c>
       <c r="Z16" t="n">
-        <v>3.65</v>
+        <v>4.01</v>
       </c>
       <c r="AA16" t="n">
-        <v>688.7678079999999</v>
+        <v>759.9320290000001</v>
       </c>
       <c r="AB16" t="n">
-        <v>9071.468215999999</v>
+        <v>2251.875708</v>
       </c>
       <c r="AC16" t="n">
-        <v>5.66</v>
+        <v>4.37</v>
       </c>
       <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="inlineStr"/>
       <c r="AH16" t="n">
-        <v>20.56377106</v>
+        <v>21.9931</v>
       </c>
       <c r="AI16" t="n">
-        <v>653.867403</v>
+        <v>545.2296</v>
       </c>
       <c r="AJ16" t="n">
-        <v>6622.617456</v>
+        <v>1472.1495</v>
       </c>
       <c r="AK16" t="n">
-        <v>23.11571587</v>
+        <v>22.9185</v>
+      </c>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="n">
+        <v>296.94443</v>
+      </c>
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="n">
+        <v>382.5543</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>1056.876938</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>759.932108</v>
+      </c>
+      <c r="AS16" t="inlineStr"/>
+      <c r="AT16" t="n">
+        <v>545.2295</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2017年1月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -1487,16 +1721,16 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>6.79</v>
+        <v>7.45</v>
       </c>
       <c r="G17" t="n">
-        <v>291.395229</v>
+        <v>294.949062</v>
       </c>
       <c r="H17" t="n">
-        <v>291.395229</v>
+        <v>1174.612292</v>
       </c>
       <c r="I17" t="n">
-        <v>6.79</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1507,62 +1741,81 @@
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="n">
-        <v>6.2269</v>
+        <v>22.7</v>
       </c>
       <c r="S17" t="n">
-        <v>309.8517</v>
+        <v>369.3</v>
       </c>
       <c r="T17" t="n">
-        <v>309.8517</v>
+        <v>1353.9</v>
       </c>
       <c r="U17" t="n">
-        <v>6.2269</v>
+        <v>26.1</v>
       </c>
       <c r="V17" t="n">
-        <v>5.71</v>
+        <v>5.4</v>
       </c>
       <c r="W17" t="n">
-        <v>1042.374648</v>
+        <v>1109.058225</v>
       </c>
       <c r="X17" t="n">
-        <v>1042.374648</v>
+        <v>4240.597163</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.71</v>
+        <v>5.62</v>
       </c>
       <c r="Z17" t="n">
-        <v>5.3</v>
+        <v>4.67</v>
       </c>
       <c r="AA17" t="n">
-        <v>750.979419</v>
+        <v>814.109064</v>
       </c>
       <c r="AB17" t="n">
-        <v>750.979419</v>
+        <v>3065.984772</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.3</v>
+        <v>4.45</v>
       </c>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="inlineStr"/>
       <c r="AH17" t="n">
-        <v>11.2425</v>
+        <v>18</v>
       </c>
       <c r="AI17" t="n">
-        <v>491.7489</v>
+        <v>489.3</v>
       </c>
       <c r="AJ17" t="n">
-        <v>491.7489</v>
+        <v>1961.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>11.2425</v>
+        <v>21.6</v>
+      </c>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="n">
+        <v>294.949062</v>
+      </c>
+      <c r="AN17" t="inlineStr"/>
+      <c r="AO17" t="inlineStr"/>
+      <c r="AP17" t="n">
+        <v>369.2903000000001</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>1109.058225</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>814.1090639999998</v>
+      </c>
+      <c r="AS17" t="inlineStr"/>
+      <c r="AT17" t="n">
+        <v>489.3505</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -1570,16 +1823,16 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>12.49</v>
+        <v>4.93</v>
       </c>
       <c r="G18" t="n">
-        <v>291.3235</v>
+        <v>295.341424</v>
       </c>
       <c r="H18" t="n">
-        <v>582.7188</v>
+        <v>1469.953716</v>
       </c>
       <c r="I18" t="n">
-        <v>9.57</v>
+        <v>8</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1590,62 +1843,81 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>65.7749</v>
+        <v>28.6743</v>
       </c>
       <c r="S18" t="n">
-        <v>292.2037</v>
+        <v>407.3692</v>
       </c>
       <c r="T18" t="n">
-        <v>602.0554</v>
+        <v>1761.272</v>
       </c>
       <c r="U18" t="n">
-        <v>28.657</v>
+        <v>26.6588</v>
       </c>
       <c r="V18" t="n">
-        <v>6.11</v>
+        <v>6.3</v>
       </c>
       <c r="W18" t="n">
-        <v>1032.2878</v>
+        <v>1108.816528</v>
       </c>
       <c r="X18" t="n">
-        <v>2074.662</v>
+        <v>5349.413691</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.91</v>
+        <v>5.76</v>
       </c>
       <c r="Z18" t="n">
-        <v>3.8</v>
+        <v>6.8</v>
       </c>
       <c r="AA18" t="n">
-        <v>740.9642</v>
+        <v>813.475203</v>
       </c>
       <c r="AB18" t="n">
-        <v>1491.9436</v>
+        <v>3879.459975</v>
       </c>
       <c r="AC18" t="n">
-        <v>4.55</v>
+        <v>4.93</v>
       </c>
       <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="inlineStr"/>
       <c r="AH18" t="n">
-        <v>40.9793</v>
+        <v>26.5789</v>
       </c>
       <c r="AI18" t="n">
-        <v>435.1711</v>
+        <v>537.2539</v>
       </c>
       <c r="AJ18" t="n">
-        <v>926.92</v>
+        <v>2500.1093</v>
       </c>
       <c r="AK18" t="n">
-        <v>23.4694</v>
+        <v>22.7437</v>
+      </c>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="n">
+        <v>295.341424</v>
+      </c>
+      <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="inlineStr"/>
+      <c r="AP18" t="n">
+        <v>407.3719999999998</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>1108.816527999999</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>813.4752030000004</v>
+      </c>
+      <c r="AS18" t="inlineStr"/>
+      <c r="AT18" t="n">
+        <v>538.6093000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -1653,16 +1925,16 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>8.68</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>296.944402</v>
+        <v>309.529861</v>
       </c>
       <c r="H19" t="n">
-        <v>879.66323</v>
+        <v>1779.483577</v>
       </c>
       <c r="I19" t="n">
-        <v>9.26</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1673,62 +1945,81 @@
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>25.3792</v>
+        <v>29.6</v>
       </c>
       <c r="S19" t="n">
-        <v>382.5543</v>
+        <v>419.9</v>
       </c>
       <c r="T19" t="n">
-        <v>984.6097</v>
+        <v>2181.2</v>
       </c>
       <c r="U19" t="n">
-        <v>27.3633</v>
+        <v>27.2</v>
       </c>
       <c r="V19" t="n">
-        <v>5.28</v>
+        <v>4.86</v>
       </c>
       <c r="W19" t="n">
-        <v>1056.876431</v>
+        <v>1104.550145</v>
       </c>
       <c r="X19" t="n">
-        <v>3131.538938</v>
+        <v>6453.963836</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>4.01</v>
+        <v>3.25</v>
       </c>
       <c r="AA19" t="n">
-        <v>759.9320290000001</v>
+        <v>795.0202839999999</v>
       </c>
       <c r="AB19" t="n">
-        <v>2251.875708</v>
+        <v>4674.480259</v>
       </c>
       <c r="AC19" t="n">
-        <v>4.37</v>
+        <v>4.64</v>
       </c>
       <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="inlineStr"/>
       <c r="AH19" t="n">
-        <v>21.9931</v>
+        <v>27.6</v>
       </c>
       <c r="AI19" t="n">
-        <v>545.2296</v>
+        <v>560.2</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1472.1495</v>
+        <v>3060.3</v>
       </c>
       <c r="AK19" t="n">
-        <v>22.9185</v>
+        <v>23.6</v>
+      </c>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="n">
+        <v>309.529861</v>
+      </c>
+      <c r="AN19" t="inlineStr"/>
+      <c r="AO19" t="inlineStr"/>
+      <c r="AP19" t="n">
+        <v>419.9279999999999</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>1104.550145</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>795.0202839999997</v>
+      </c>
+      <c r="AS19" t="inlineStr"/>
+      <c r="AT19" t="n">
+        <v>560.1907000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -1736,16 +2027,16 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>7.45</v>
+        <v>8.17</v>
       </c>
       <c r="G20" t="n">
-        <v>294.949062</v>
+        <v>292.178863</v>
       </c>
       <c r="H20" t="n">
-        <v>1174.612292</v>
+        <v>2071.66244</v>
       </c>
       <c r="I20" t="n">
-        <v>8.800000000000001</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1756,62 +2047,81 @@
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>22.7</v>
+        <v>25.8</v>
       </c>
       <c r="S20" t="n">
-        <v>369.3</v>
+        <v>391.7</v>
       </c>
       <c r="T20" t="n">
-        <v>1353.9</v>
+        <v>2572.9</v>
       </c>
       <c r="U20" t="n">
-        <v>26.1</v>
+        <v>27</v>
       </c>
       <c r="V20" t="n">
-        <v>5.4</v>
+        <v>7.65</v>
       </c>
       <c r="W20" t="n">
-        <v>1109.058225</v>
+        <v>1063.104427</v>
       </c>
       <c r="X20" t="n">
-        <v>4240.597163</v>
+        <v>7517.068263</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.62</v>
+        <v>5.89</v>
       </c>
       <c r="Z20" t="n">
-        <v>4.67</v>
+        <v>7.46</v>
       </c>
       <c r="AA20" t="n">
-        <v>814.109064</v>
+        <v>770.925564</v>
       </c>
       <c r="AB20" t="n">
-        <v>3065.984772</v>
+        <v>5445.405823</v>
       </c>
       <c r="AC20" t="n">
-        <v>4.45</v>
+        <v>5.03</v>
       </c>
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="inlineStr"/>
       <c r="AH20" t="n">
-        <v>18</v>
+        <v>25.1</v>
       </c>
       <c r="AI20" t="n">
-        <v>489.3</v>
+        <v>515.3</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1961.5</v>
+        <v>3575.7</v>
       </c>
       <c r="AK20" t="n">
-        <v>21.6</v>
+        <v>23.8</v>
+      </c>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="n">
+        <v>292.1788630000001</v>
+      </c>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="inlineStr"/>
+      <c r="AP20" t="n">
+        <v>391.7000000000003</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>1063.104427</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>770.9255640000001</v>
+      </c>
+      <c r="AS20" t="inlineStr"/>
+      <c r="AT20" t="n">
+        <v>515.3999999999996</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -1819,16 +2129,16 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>4.93</v>
+        <v>8.07</v>
       </c>
       <c r="G21" t="n">
-        <v>295.341424</v>
+        <v>296.675855</v>
       </c>
       <c r="H21" t="n">
-        <v>1469.953716</v>
+        <v>2368.338295</v>
       </c>
       <c r="I21" t="n">
-        <v>8</v>
+        <v>8.19</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1839,62 +2149,81 @@
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>28.6743</v>
+        <v>27.22401817</v>
       </c>
       <c r="S21" t="n">
-        <v>407.3692</v>
+        <v>404.018349</v>
       </c>
       <c r="T21" t="n">
-        <v>1761.272</v>
+        <v>2976.905426</v>
       </c>
       <c r="U21" t="n">
-        <v>26.6588</v>
+        <v>27.0252102</v>
       </c>
       <c r="V21" t="n">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="W21" t="n">
-        <v>1108.816528</v>
+        <v>1077.046401</v>
       </c>
       <c r="X21" t="n">
-        <v>5349.413691</v>
+        <v>8594.114664000001</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.76</v>
+        <v>5.88</v>
       </c>
       <c r="Z21" t="n">
-        <v>6.8</v>
+        <v>4.96</v>
       </c>
       <c r="AA21" t="n">
-        <v>813.475203</v>
+        <v>780.370546</v>
       </c>
       <c r="AB21" t="n">
-        <v>3879.459975</v>
+        <v>6225.776369</v>
       </c>
       <c r="AC21" t="n">
-        <v>4.93</v>
+        <v>5.02</v>
       </c>
       <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="inlineStr"/>
       <c r="AH21" t="n">
-        <v>26.5789</v>
+        <v>25.56777298</v>
       </c>
       <c r="AI21" t="n">
-        <v>537.2539</v>
+        <v>532.631791</v>
       </c>
       <c r="AJ21" t="n">
-        <v>2500.1093</v>
+        <v>4108.296443</v>
       </c>
       <c r="AK21" t="n">
-        <v>22.7437</v>
+        <v>24.04994336</v>
+      </c>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="n">
+        <v>296.675855</v>
+      </c>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="inlineStr"/>
+      <c r="AP21" t="n">
+        <v>404.0054259999997</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>1077.046401000001</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>780.3705460000001</v>
+      </c>
+      <c r="AS21" t="inlineStr"/>
+      <c r="AT21" t="n">
+        <v>532.5964430000004</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -1902,16 +2231,16 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>9.220000000000001</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>309.529861</v>
+        <v>305.395969</v>
       </c>
       <c r="H22" t="n">
-        <v>1779.483577</v>
+        <v>2673.734264</v>
       </c>
       <c r="I22" t="n">
-        <v>8.210000000000001</v>
+        <v>8.35</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1922,62 +2251,81 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>29.6</v>
+        <v>24.4303</v>
       </c>
       <c r="S22" t="n">
-        <v>419.9</v>
+        <v>448.1431</v>
       </c>
       <c r="T22" t="n">
-        <v>2181.2</v>
+        <v>3425.0485</v>
       </c>
       <c r="U22" t="n">
-        <v>27.2</v>
+        <v>26.6795</v>
       </c>
       <c r="V22" t="n">
-        <v>4.86</v>
+        <v>7.24</v>
       </c>
       <c r="W22" t="n">
-        <v>1104.550145</v>
+        <v>1029.865027</v>
       </c>
       <c r="X22" t="n">
-        <v>6453.963836</v>
+        <v>9623.979691</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.6</v>
+        <v>6.02</v>
       </c>
       <c r="Z22" t="n">
-        <v>3.25</v>
+        <v>6.25</v>
       </c>
       <c r="AA22" t="n">
-        <v>795.0202839999999</v>
+        <v>724.469058</v>
       </c>
       <c r="AB22" t="n">
-        <v>4674.480259</v>
+        <v>6950.245427</v>
       </c>
       <c r="AC22" t="n">
-        <v>4.64</v>
+        <v>5.15</v>
       </c>
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="n">
-        <v>27.6</v>
+        <v>23.9366</v>
       </c>
       <c r="AI22" t="n">
-        <v>560.2</v>
+        <v>583.9256</v>
       </c>
       <c r="AJ22" t="n">
-        <v>3060.3</v>
+        <v>4692.2221</v>
       </c>
       <c r="AK22" t="n">
-        <v>23.6</v>
+        <v>24.0358</v>
+      </c>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="n">
+        <v>305.3959690000002</v>
+      </c>
+      <c r="AN22" t="inlineStr"/>
+      <c r="AO22" t="inlineStr"/>
+      <c r="AP22" t="n">
+        <v>448.1430740000001</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>1029.865027</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>724.4690579999997</v>
+      </c>
+      <c r="AS22" t="inlineStr"/>
+      <c r="AT22" t="n">
+        <v>583.9256569999998</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -1985,16 +2333,16 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>8.17</v>
+        <v>13.39</v>
       </c>
       <c r="G23" t="n">
-        <v>292.178863</v>
+        <v>308.786641</v>
       </c>
       <c r="H23" t="n">
-        <v>2071.66244</v>
+        <v>2982.520905</v>
       </c>
       <c r="I23" t="n">
-        <v>8.210000000000001</v>
+        <v>8.85</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -2005,62 +2353,81 @@
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="n">
-        <v>25.8</v>
+        <v>18.7795</v>
       </c>
       <c r="S23" t="n">
-        <v>391.7</v>
+        <v>446.8009</v>
       </c>
       <c r="T23" t="n">
-        <v>2572.9</v>
+        <v>3871.8494</v>
       </c>
       <c r="U23" t="n">
-        <v>27</v>
+        <v>25.7147</v>
       </c>
       <c r="V23" t="n">
-        <v>7.65</v>
+        <v>9.32</v>
       </c>
       <c r="W23" t="n">
-        <v>1063.104427</v>
+        <v>1036.312415</v>
       </c>
       <c r="X23" t="n">
-        <v>7517.068263</v>
+        <v>10660.29211</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.89</v>
+        <v>6.33</v>
       </c>
       <c r="Z23" t="n">
-        <v>7.46</v>
+        <v>7.68</v>
       </c>
       <c r="AA23" t="n">
-        <v>770.925564</v>
+        <v>727.525774</v>
       </c>
       <c r="AB23" t="n">
-        <v>5445.405823</v>
+        <v>7677.771201</v>
       </c>
       <c r="AC23" t="n">
-        <v>5.03</v>
+        <v>5.38</v>
       </c>
       <c r="AD23" t="inlineStr"/>
       <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="inlineStr"/>
       <c r="AH23" t="n">
-        <v>25.1</v>
+        <v>19.3932</v>
       </c>
       <c r="AI23" t="n">
-        <v>515.3</v>
+        <v>577.236</v>
       </c>
       <c r="AJ23" t="n">
-        <v>3575.7</v>
+        <v>5269.4581</v>
       </c>
       <c r="AK23" t="n">
-        <v>23.8</v>
+        <v>23.5097</v>
+      </c>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="n">
+        <v>308.7866409999997</v>
+      </c>
+      <c r="AN23" t="inlineStr"/>
+      <c r="AO23" t="inlineStr"/>
+      <c r="AP23" t="n">
+        <v>446.8009000000002</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>1036.312419</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>727.5257739999997</v>
+      </c>
+      <c r="AS23" t="inlineStr"/>
+      <c r="AT23" t="n">
+        <v>577.2359999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -2068,16 +2435,16 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>8.07</v>
+        <v>2.91</v>
       </c>
       <c r="G24" t="n">
-        <v>296.675855</v>
+        <v>278.427792</v>
       </c>
       <c r="H24" t="n">
-        <v>2368.338295</v>
+        <v>3260.948697</v>
       </c>
       <c r="I24" t="n">
-        <v>8.19</v>
+        <v>8.32</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -2088,62 +2455,81 @@
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="n">
-        <v>27.22401817</v>
+        <v>21.82079188</v>
       </c>
       <c r="S24" t="n">
-        <v>404.018349</v>
+        <v>565.5025450000001</v>
       </c>
       <c r="T24" t="n">
-        <v>2976.905426</v>
+        <v>4437.351954</v>
       </c>
       <c r="U24" t="n">
-        <v>27.0252102</v>
+        <v>25.20465264</v>
       </c>
       <c r="V24" t="n">
-        <v>5.8</v>
+        <v>8.5</v>
       </c>
       <c r="W24" t="n">
-        <v>1077.046401</v>
+        <v>983.356899</v>
       </c>
       <c r="X24" t="n">
-        <v>8594.114664000001</v>
+        <v>11643.64901</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.88</v>
+        <v>6.51</v>
       </c>
       <c r="Z24" t="n">
-        <v>4.96</v>
+        <v>10.88</v>
       </c>
       <c r="AA24" t="n">
-        <v>780.370546</v>
+        <v>704.929207</v>
       </c>
       <c r="AB24" t="n">
-        <v>6225.776369</v>
+        <v>8382.700408000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>5.02</v>
+        <v>5.83</v>
       </c>
       <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="inlineStr"/>
       <c r="AH24" t="n">
-        <v>25.56777298</v>
+        <v>22.59503661</v>
       </c>
       <c r="AI24" t="n">
-        <v>532.631791</v>
+        <v>699.291932</v>
       </c>
       <c r="AJ24" t="n">
-        <v>4108.296443</v>
+        <v>5968.750053</v>
       </c>
       <c r="AK24" t="n">
-        <v>24.04994336</v>
+        <v>23.40185843</v>
+      </c>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="n">
+        <v>278.427792</v>
+      </c>
+      <c r="AN24" t="inlineStr"/>
+      <c r="AO24" t="inlineStr"/>
+      <c r="AP24" t="n">
+        <v>565.5025539999997</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>983.3568999999989</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>704.929207000001</v>
+      </c>
+      <c r="AS24" t="inlineStr"/>
+      <c r="AT24" t="n">
+        <v>699.2919529999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -2151,16 +2537,16 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>9.640000000000001</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>305.395969</v>
+        <v>287.761375</v>
       </c>
       <c r="H25" t="n">
-        <v>2673.734264</v>
+        <v>3548.710072</v>
       </c>
       <c r="I25" t="n">
-        <v>8.35</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -2171,62 +2557,81 @@
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="n">
-        <v>24.4303</v>
+        <v>20.79476201</v>
       </c>
       <c r="S25" t="n">
-        <v>448.1431</v>
+        <v>519.756922</v>
       </c>
       <c r="T25" t="n">
-        <v>3425.0485</v>
+        <v>4957.108876</v>
       </c>
       <c r="U25" t="n">
-        <v>26.6795</v>
+        <v>24.72721926</v>
       </c>
       <c r="V25" t="n">
-        <v>7.24</v>
+        <v>5.18</v>
       </c>
       <c r="W25" t="n">
-        <v>1029.865027</v>
+        <v>976.529283</v>
       </c>
       <c r="X25" t="n">
-        <v>9623.979691</v>
+        <v>12620.17829</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.02</v>
+        <v>6.41</v>
       </c>
       <c r="Z25" t="n">
-        <v>6.25</v>
+        <v>3.65</v>
       </c>
       <c r="AA25" t="n">
-        <v>724.469058</v>
+        <v>688.7678079999999</v>
       </c>
       <c r="AB25" t="n">
-        <v>6950.245427</v>
+        <v>9071.468215999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>5.15</v>
+        <v>5.66</v>
       </c>
       <c r="AD25" t="inlineStr"/>
       <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="inlineStr"/>
       <c r="AH25" t="n">
-        <v>23.9366</v>
+        <v>20.56377106</v>
       </c>
       <c r="AI25" t="n">
-        <v>583.9256</v>
+        <v>653.867403</v>
       </c>
       <c r="AJ25" t="n">
-        <v>4692.2221</v>
+        <v>6622.617456</v>
       </c>
       <c r="AK25" t="n">
-        <v>24.0358</v>
+        <v>23.11571587</v>
+      </c>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="n">
+        <v>287.761375</v>
+      </c>
+      <c r="AN25" t="inlineStr"/>
+      <c r="AO25" t="inlineStr"/>
+      <c r="AP25" t="n">
+        <v>519.7569220000005</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>976.5292800000007</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>688.7678079999987</v>
+      </c>
+      <c r="AS25" t="inlineStr"/>
+      <c r="AT25" t="n">
+        <v>653.8674030000002</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
+          <t>2018-01</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -2234,16 +2639,16 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>3.09</v>
+        <v>12.19</v>
       </c>
       <c r="G26" t="n">
-        <v>318.530844</v>
+        <v>321.647576</v>
       </c>
       <c r="H26" t="n">
-        <v>3236.07895</v>
+        <v>321.647576</v>
       </c>
       <c r="I26" t="n">
-        <v>8.27</v>
+        <v>12.19</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -2254,62 +2659,81 @@
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="n">
-        <v>19.555985052</v>
+        <v>60.6</v>
       </c>
       <c r="S26" t="n">
-        <v>534.177222</v>
+        <v>497.5</v>
       </c>
       <c r="T26" t="n">
-        <v>4780.476338</v>
+        <v>497.5</v>
       </c>
       <c r="U26" t="n">
-        <v>23.467517277</v>
+        <v>60.6</v>
       </c>
       <c r="V26" t="n">
-        <v>-0.26</v>
+        <v>4.74</v>
       </c>
       <c r="W26" t="n">
-        <v>1033.473262</v>
+        <v>1087.378517</v>
       </c>
       <c r="X26" t="n">
-        <v>10948.12431</v>
+        <v>1087.378517</v>
       </c>
       <c r="Y26" t="n">
-        <v>2.7</v>
+        <v>4.74</v>
       </c>
       <c r="Z26" t="n">
-        <v>-1.68</v>
+        <v>1.9</v>
       </c>
       <c r="AA26" t="n">
-        <v>714.942528</v>
+        <v>765.73094</v>
       </c>
       <c r="AB26" t="n">
-        <v>7712.04537</v>
+        <v>765.73094</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.53</v>
+        <v>1.9</v>
       </c>
       <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="inlineStr"/>
       <c r="AH26" t="n">
-        <v>17.279087622</v>
+        <v>43.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>676.977167</v>
+        <v>705.5</v>
       </c>
       <c r="AJ26" t="n">
-        <v>6350.370165</v>
+        <v>705.5</v>
       </c>
       <c r="AK26" t="n">
-        <v>20.512774164</v>
+        <v>43.5</v>
+      </c>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="n">
+        <v>321.647576</v>
+      </c>
+      <c r="AN26" t="inlineStr"/>
+      <c r="AO26" t="inlineStr"/>
+      <c r="AP26" t="n">
+        <v>497.5</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>1087.378517</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>765.73094</v>
+      </c>
+      <c r="AS26" t="inlineStr"/>
+      <c r="AT26" t="n">
+        <v>705.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -2317,16 +2741,16 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>17.14</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>327.26585</v>
+        <v>313.174106</v>
       </c>
       <c r="H27" t="n">
-        <v>3563.3448</v>
+        <v>634.821682</v>
       </c>
       <c r="I27" t="n">
-        <v>9.029999999999999</v>
+        <v>10.61</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -2337,62 +2761,81 @@
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="n">
-        <v>14.6</v>
+        <v>-1</v>
       </c>
       <c r="S27" t="n">
-        <v>648.3</v>
+        <v>289.4</v>
       </c>
       <c r="T27" t="n">
-        <v>5428.8</v>
+        <v>786.9</v>
       </c>
       <c r="U27" t="n">
-        <v>22.3</v>
+        <v>30.7</v>
       </c>
       <c r="V27" t="n">
-        <v>4.98</v>
+        <v>5.14</v>
       </c>
       <c r="W27" t="n">
-        <v>1032.56386</v>
+        <v>1080.317047</v>
       </c>
       <c r="X27" t="n">
-        <v>11980.68817</v>
+        <v>2167.695564</v>
       </c>
       <c r="Y27" t="n">
-        <v>2.89</v>
+        <v>4.94</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.15</v>
+        <v>3.64</v>
       </c>
       <c r="AA27" t="n">
-        <v>705.29799</v>
+        <v>767.1429419999999</v>
       </c>
       <c r="AB27" t="n">
-        <v>8417.343360000001</v>
+        <v>1532.873882</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.5</v>
+        <v>2.76</v>
       </c>
       <c r="AD27" t="inlineStr"/>
       <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="inlineStr"/>
       <c r="AH27" t="n">
-        <v>13.2</v>
+        <v>2.2</v>
       </c>
       <c r="AI27" t="n">
-        <v>791.3</v>
+        <v>444.8</v>
       </c>
       <c r="AJ27" t="n">
-        <v>7141.7</v>
+        <v>1150.4</v>
       </c>
       <c r="AK27" t="n">
-        <v>19.7</v>
+        <v>24.1</v>
+      </c>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="n">
+        <v>313.174106</v>
+      </c>
+      <c r="AN27" t="inlineStr"/>
+      <c r="AO27" t="inlineStr"/>
+      <c r="AP27" t="n">
+        <v>289.4</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>1080.317047</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>767.1429420000001</v>
+      </c>
+      <c r="AS27" t="inlineStr"/>
+      <c r="AT27" t="n">
+        <v>444.9000000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -2400,16 +2843,16 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>9.66</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>313.07782</v>
+        <v>332.02936</v>
       </c>
       <c r="H28" t="n">
-        <v>3876.42262</v>
+        <v>966.851042</v>
       </c>
       <c r="I28" t="n">
-        <v>9.08</v>
+        <v>10.15</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -2420,62 +2863,81 @@
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="n">
-        <v>17.3</v>
+        <v>26.64147866</v>
       </c>
       <c r="S28" t="n">
-        <v>609.6</v>
+        <v>484.472445</v>
       </c>
       <c r="T28" t="n">
-        <v>6038.4</v>
+        <v>1271.37179</v>
       </c>
       <c r="U28" t="n">
-        <v>21.8</v>
+        <v>29.12444173</v>
       </c>
       <c r="V28" t="n">
-        <v>3.66</v>
+        <v>5.28</v>
       </c>
       <c r="W28" t="n">
-        <v>1029.43075</v>
+        <v>1120.424519</v>
       </c>
       <c r="X28" t="n">
-        <v>13010.11892</v>
+        <v>3288.120083</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.95</v>
+        <v>5.06</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.23</v>
+        <v>3.68</v>
       </c>
       <c r="AA28" t="n">
-        <v>716.35294</v>
+        <v>788.39516</v>
       </c>
       <c r="AB28" t="n">
-        <v>9133.6963</v>
+        <v>2321.269042</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.5600000000000001</v>
+        <v>3.07</v>
       </c>
       <c r="AD28" t="inlineStr"/>
       <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="inlineStr"/>
       <c r="AH28" t="n">
-        <v>16.7</v>
+        <v>22.71733588</v>
       </c>
       <c r="AI28" t="n">
-        <v>763</v>
+        <v>669.091188</v>
       </c>
       <c r="AJ28" t="n">
-        <v>7904.7</v>
+        <v>1819.462039</v>
       </c>
       <c r="AK28" t="n">
-        <v>19.4</v>
+        <v>23.59220357</v>
+      </c>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="n">
+        <v>332.02936</v>
+      </c>
+      <c r="AN28" t="inlineStr"/>
+      <c r="AO28" t="inlineStr"/>
+      <c r="AP28" t="n">
+        <v>484.4717899999999</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>1120.424519</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>788.3951599999998</v>
+      </c>
+      <c r="AS28" t="inlineStr"/>
+      <c r="AT28" t="n">
+        <v>669.0620389999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2018年1月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -2483,16 +2945,16 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>12.19</v>
+        <v>8.32</v>
       </c>
       <c r="G29" t="n">
-        <v>321.647576</v>
+        <v>319.52323</v>
       </c>
       <c r="H29" t="n">
-        <v>321.647576</v>
+        <v>1286.374272</v>
       </c>
       <c r="I29" t="n">
-        <v>12.19</v>
+        <v>9.69</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -2503,62 +2965,81 @@
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="n">
-        <v>60.6</v>
+        <v>26.51</v>
       </c>
       <c r="S29" t="n">
-        <v>497.5</v>
+        <v>467.2</v>
       </c>
       <c r="T29" t="n">
-        <v>497.5</v>
+        <v>1738.6</v>
       </c>
       <c r="U29" t="n">
-        <v>60.6</v>
+        <v>28.41</v>
       </c>
       <c r="V29" t="n">
-        <v>4.74</v>
+        <v>3.047</v>
       </c>
       <c r="W29" t="n">
-        <v>1087.378517</v>
+        <v>1142.80457</v>
       </c>
       <c r="X29" t="n">
-        <v>1087.378517</v>
+        <v>4430.924653</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.74</v>
+        <v>4.53</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.9</v>
+        <v>1.14</v>
       </c>
       <c r="AA29" t="n">
-        <v>765.73094</v>
+        <v>823.281339</v>
       </c>
       <c r="AB29" t="n">
-        <v>765.73094</v>
+        <v>3144.550381</v>
       </c>
       <c r="AC29" t="n">
-        <v>1.9</v>
+        <v>2.56</v>
       </c>
       <c r="AD29" t="inlineStr"/>
       <c r="AE29" t="inlineStr"/>
       <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="inlineStr"/>
       <c r="AH29" t="n">
-        <v>43.5</v>
+        <v>24.53</v>
       </c>
       <c r="AI29" t="n">
-        <v>705.5</v>
+        <v>611.09</v>
       </c>
       <c r="AJ29" t="n">
-        <v>705.5</v>
+        <v>2430.55</v>
       </c>
       <c r="AK29" t="n">
-        <v>43.5</v>
+        <v>23.83</v>
+      </c>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="n">
+        <v>319.52323</v>
+      </c>
+      <c r="AN29" t="inlineStr"/>
+      <c r="AO29" t="inlineStr"/>
+      <c r="AP29" t="n">
+        <v>467.22821</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>1142.80457</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>823.2813390000001</v>
+      </c>
+      <c r="AS29" t="inlineStr"/>
+      <c r="AT29" t="n">
+        <v>611.0879610000002</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -2566,16 +3047,16 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>9.029999999999999</v>
+        <v>10.95</v>
       </c>
       <c r="G30" t="n">
-        <v>313.174106</v>
+        <v>329.228919</v>
       </c>
       <c r="H30" t="n">
-        <v>634.821682</v>
+        <v>1615.603191</v>
       </c>
       <c r="I30" t="n">
-        <v>10.61</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -2586,62 +3067,81 @@
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="n">
-        <v>-1</v>
+        <v>22.20457727</v>
       </c>
       <c r="S30" t="n">
-        <v>289.4</v>
+        <v>497.82381</v>
       </c>
       <c r="T30" t="n">
-        <v>786.9</v>
+        <v>2236.421051</v>
       </c>
       <c r="U30" t="n">
-        <v>30.7</v>
+        <v>26.97760426</v>
       </c>
       <c r="V30" t="n">
-        <v>5.14</v>
+        <v>2.93</v>
       </c>
       <c r="W30" t="n">
-        <v>1080.317047</v>
+        <v>1144.71738</v>
       </c>
       <c r="X30" t="n">
-        <v>2167.695564</v>
+        <v>5575.642033</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.94</v>
+        <v>4.2</v>
       </c>
       <c r="Z30" t="n">
-        <v>3.64</v>
+        <v>0.02</v>
       </c>
       <c r="AA30" t="n">
-        <v>767.1429419999999</v>
+        <v>815.4883599999999</v>
       </c>
       <c r="AB30" t="n">
-        <v>1532.873882</v>
+        <v>3960.038741</v>
       </c>
       <c r="AC30" t="n">
-        <v>2.76</v>
+        <v>2.02</v>
       </c>
       <c r="AD30" t="inlineStr"/>
       <c r="AE30" t="inlineStr"/>
       <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="inlineStr"/>
       <c r="AH30" t="n">
-        <v>2.2</v>
+        <v>19</v>
       </c>
       <c r="AI30" t="n">
-        <v>444.8</v>
+        <v>641.130577</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1150.4</v>
+        <v>3071.68542</v>
       </c>
       <c r="AK30" t="n">
-        <v>24.1</v>
+        <v>22.86204689</v>
+      </c>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="n">
+        <v>329.2289189999999</v>
+      </c>
+      <c r="AN30" t="inlineStr"/>
+      <c r="AO30" t="inlineStr"/>
+      <c r="AP30" t="n">
+        <v>497.8210509999999</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>1144.71738</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>815.4883599999998</v>
+      </c>
+      <c r="AS30" t="inlineStr"/>
+      <c r="AT30" t="n">
+        <v>641.1354199999996</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -2649,16 +3149,16 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>9.289999999999999</v>
+        <v>10.24</v>
       </c>
       <c r="G31" t="n">
-        <v>332.02936</v>
+        <v>342.147138</v>
       </c>
       <c r="H31" t="n">
-        <v>966.851042</v>
+        <v>1957.750329</v>
       </c>
       <c r="I31" t="n">
-        <v>10.15</v>
+        <v>10</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -2669,62 +3169,81 @@
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="n">
-        <v>26.64147866</v>
+        <v>21.108552596</v>
       </c>
       <c r="S31" t="n">
-        <v>484.472445</v>
+        <v>508.572356</v>
       </c>
       <c r="T31" t="n">
-        <v>1271.37179</v>
+        <v>2744.993407</v>
       </c>
       <c r="U31" t="n">
-        <v>29.12444173</v>
+        <v>25.847678854</v>
       </c>
       <c r="V31" t="n">
-        <v>5.28</v>
+        <v>3.52</v>
       </c>
       <c r="W31" t="n">
-        <v>1120.424519</v>
+        <v>1144.595555</v>
       </c>
       <c r="X31" t="n">
-        <v>3288.120083</v>
+        <v>6720.237588</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.06</v>
+        <v>4.08</v>
       </c>
       <c r="Z31" t="n">
-        <v>3.68</v>
+        <v>0.9</v>
       </c>
       <c r="AA31" t="n">
-        <v>788.39516</v>
+        <v>802.448618</v>
       </c>
       <c r="AB31" t="n">
-        <v>2321.269042</v>
+        <v>4762.487359</v>
       </c>
       <c r="AC31" t="n">
-        <v>3.07</v>
+        <v>1.83</v>
       </c>
       <c r="AD31" t="inlineStr"/>
       <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="inlineStr"/>
       <c r="AH31" t="n">
-        <v>22.71733588</v>
+        <v>19.474327572</v>
       </c>
       <c r="AI31" t="n">
-        <v>669.091188</v>
+        <v>669.331833</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1819.462039</v>
+        <v>3741.017253</v>
       </c>
       <c r="AK31" t="n">
-        <v>23.59220357</v>
+        <v>22.24188563</v>
+      </c>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="n">
+        <v>342.147138</v>
+      </c>
+      <c r="AN31" t="inlineStr"/>
+      <c r="AO31" t="inlineStr"/>
+      <c r="AP31" t="n">
+        <v>508.5723560000001</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>1144.595555</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>802.4486179999999</v>
+      </c>
+      <c r="AS31" t="inlineStr"/>
+      <c r="AT31" t="n">
+        <v>669.3318330000002</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -2732,16 +3251,16 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>8.32</v>
+        <v>7.74</v>
       </c>
       <c r="G32" t="n">
-        <v>319.52323</v>
+        <v>315.50043</v>
       </c>
       <c r="H32" t="n">
-        <v>1286.374272</v>
+        <v>2273.250759</v>
       </c>
       <c r="I32" t="n">
-        <v>9.69</v>
+        <v>9.68</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -2752,62 +3271,81 @@
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="n">
-        <v>26.51</v>
+        <v>22.962928877</v>
       </c>
       <c r="S32" t="n">
-        <v>467.2</v>
+        <v>481.626154</v>
       </c>
       <c r="T32" t="n">
-        <v>1738.6</v>
+        <v>3226.619561</v>
       </c>
       <c r="U32" t="n">
-        <v>28.41</v>
+        <v>25.408518308</v>
       </c>
       <c r="V32" t="n">
-        <v>3.047</v>
+        <v>1.46</v>
       </c>
       <c r="W32" t="n">
-        <v>1142.80457</v>
+        <v>1078.32872</v>
       </c>
       <c r="X32" t="n">
-        <v>4430.924653</v>
+        <v>7798.566308</v>
       </c>
       <c r="Y32" t="n">
-        <v>4.53</v>
+        <v>3.71</v>
       </c>
       <c r="Z32" t="n">
-        <v>1.14</v>
+        <v>-0.93</v>
       </c>
       <c r="AA32" t="n">
-        <v>823.281339</v>
+        <v>762.8281899999999</v>
       </c>
       <c r="AB32" t="n">
-        <v>3144.550381</v>
+        <v>5525.315549</v>
       </c>
       <c r="AC32" t="n">
-        <v>2.56</v>
+        <v>1.44</v>
       </c>
       <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="inlineStr"/>
       <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="inlineStr"/>
       <c r="AH32" t="n">
-        <v>24.53</v>
+        <v>19.781408347</v>
       </c>
       <c r="AI32" t="n">
-        <v>611.09</v>
+        <v>617.263194</v>
       </c>
       <c r="AJ32" t="n">
-        <v>2430.55</v>
+        <v>4358.280447</v>
       </c>
       <c r="AK32" t="n">
-        <v>23.83</v>
+        <v>21.887281699</v>
+      </c>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="n">
+        <v>315.5004300000001</v>
+      </c>
+      <c r="AN32" t="inlineStr"/>
+      <c r="AO32" t="inlineStr"/>
+      <c r="AP32" t="n">
+        <v>481.626154</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>1078.32872</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>762.8281900000002</v>
+      </c>
+      <c r="AS32" t="inlineStr"/>
+      <c r="AT32" t="n">
+        <v>617.2631940000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -2815,16 +3353,16 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>10.95</v>
+        <v>6.42</v>
       </c>
       <c r="G33" t="n">
-        <v>329.228919</v>
+        <v>321.018399</v>
       </c>
       <c r="H33" t="n">
-        <v>1615.603191</v>
+        <v>2594.269158</v>
       </c>
       <c r="I33" t="n">
-        <v>9.949999999999999</v>
+        <v>9.26</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -2835,62 +3373,81 @@
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="n">
-        <v>22.20457727</v>
+        <v>20.938466832</v>
       </c>
       <c r="S33" t="n">
-        <v>497.82381</v>
+        <v>488.613597</v>
       </c>
       <c r="T33" t="n">
-        <v>2236.421051</v>
+        <v>3715.232428</v>
       </c>
       <c r="U33" t="n">
-        <v>26.97760426</v>
+        <v>24.801829294</v>
       </c>
       <c r="V33" t="n">
-        <v>2.93</v>
+        <v>0.44</v>
       </c>
       <c r="W33" t="n">
-        <v>1144.71738</v>
+        <v>1082.216563</v>
       </c>
       <c r="X33" t="n">
-        <v>5575.642033</v>
+        <v>8880.782870999999</v>
       </c>
       <c r="Y33" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.02</v>
+        <v>-1.89</v>
       </c>
       <c r="AA33" t="n">
-        <v>815.4883599999999</v>
+        <v>761.198163</v>
       </c>
       <c r="AB33" t="n">
-        <v>3960.038741</v>
+        <v>6286.513712</v>
       </c>
       <c r="AC33" t="n">
-        <v>2.02</v>
+        <v>1.03</v>
       </c>
       <c r="AD33" t="inlineStr"/>
       <c r="AE33" t="inlineStr"/>
       <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="inlineStr"/>
       <c r="AH33" t="n">
-        <v>19</v>
+        <v>18.072165542</v>
       </c>
       <c r="AI33" t="n">
-        <v>641.130577</v>
+        <v>628.88989</v>
       </c>
       <c r="AJ33" t="n">
-        <v>3071.68542</v>
+        <v>4987.169607</v>
       </c>
       <c r="AK33" t="n">
-        <v>22.86204689</v>
+        <v>21.392642332</v>
+      </c>
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="n">
+        <v>321.018399</v>
+      </c>
+      <c r="AN33" t="inlineStr"/>
+      <c r="AO33" t="inlineStr"/>
+      <c r="AP33" t="n">
+        <v>488.6128669999998</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>1082.216562999999</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>761.198163</v>
+      </c>
+      <c r="AS33" t="inlineStr"/>
+      <c r="AT33" t="n">
+        <v>628.8891599999997</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -2898,16 +3455,16 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>10.24</v>
+        <v>5.81</v>
       </c>
       <c r="G34" t="n">
-        <v>342.147138</v>
+        <v>323.278948</v>
       </c>
       <c r="H34" t="n">
-        <v>1957.750329</v>
+        <v>2917.548106</v>
       </c>
       <c r="I34" t="n">
-        <v>10</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -2918,62 +3475,81 @@
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="n">
-        <v>21.108552596</v>
+        <v>18.5</v>
       </c>
       <c r="S34" t="n">
-        <v>508.572356</v>
+        <v>531.1</v>
       </c>
       <c r="T34" t="n">
-        <v>2744.993407</v>
+        <v>4246.3</v>
       </c>
       <c r="U34" t="n">
-        <v>25.847678854</v>
+        <v>24</v>
       </c>
       <c r="V34" t="n">
-        <v>3.52</v>
+        <v>0.65</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.595555</v>
+        <v>1033.868177</v>
       </c>
       <c r="X34" t="n">
-        <v>6720.237588</v>
+        <v>9914.651048</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.08</v>
+        <v>3.02</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.9</v>
+        <v>-1.53</v>
       </c>
       <c r="AA34" t="n">
-        <v>802.448618</v>
+        <v>710.58913</v>
       </c>
       <c r="AB34" t="n">
-        <v>4762.487359</v>
+        <v>6997.102842</v>
       </c>
       <c r="AC34" t="n">
-        <v>1.83</v>
+        <v>0.76</v>
       </c>
       <c r="AD34" t="inlineStr"/>
       <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="inlineStr"/>
       <c r="AH34" t="n">
-        <v>19.474327572</v>
+        <v>17.5</v>
       </c>
       <c r="AI34" t="n">
-        <v>669.331833</v>
+        <v>686.2</v>
       </c>
       <c r="AJ34" t="n">
-        <v>3741.017253</v>
+        <v>5673.4</v>
       </c>
       <c r="AK34" t="n">
-        <v>22.24188563</v>
+        <v>20.9</v>
+      </c>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="n">
+        <v>323.2789480000001</v>
+      </c>
+      <c r="AN34" t="inlineStr"/>
+      <c r="AO34" t="inlineStr"/>
+      <c r="AP34" t="n">
+        <v>531.0675720000004</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>1033.868177</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>710.5891300000003</v>
+      </c>
+      <c r="AS34" t="inlineStr"/>
+      <c r="AT34" t="n">
+        <v>686.2303929999998</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -2981,16 +3557,16 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>7.74</v>
+        <v>3.09</v>
       </c>
       <c r="G35" t="n">
-        <v>315.50043</v>
+        <v>318.530844</v>
       </c>
       <c r="H35" t="n">
-        <v>2273.250759</v>
+        <v>3236.07895</v>
       </c>
       <c r="I35" t="n">
-        <v>9.68</v>
+        <v>8.27</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -3001,62 +3577,81 @@
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="n">
-        <v>22.962928877</v>
+        <v>19.555985052</v>
       </c>
       <c r="S35" t="n">
-        <v>481.626154</v>
+        <v>534.177222</v>
       </c>
       <c r="T35" t="n">
-        <v>3226.619561</v>
+        <v>4780.476338</v>
       </c>
       <c r="U35" t="n">
-        <v>25.408518308</v>
+        <v>23.467517277</v>
       </c>
       <c r="V35" t="n">
-        <v>1.46</v>
+        <v>-0.26</v>
       </c>
       <c r="W35" t="n">
-        <v>1078.32872</v>
+        <v>1033.473262</v>
       </c>
       <c r="X35" t="n">
-        <v>7798.566308</v>
+        <v>10948.12431</v>
       </c>
       <c r="Y35" t="n">
-        <v>3.71</v>
+        <v>2.7</v>
       </c>
       <c r="Z35" t="n">
-        <v>-0.93</v>
+        <v>-1.68</v>
       </c>
       <c r="AA35" t="n">
-        <v>762.8281899999999</v>
+        <v>714.942528</v>
       </c>
       <c r="AB35" t="n">
-        <v>5525.315549</v>
+        <v>7712.04537</v>
       </c>
       <c r="AC35" t="n">
-        <v>1.44</v>
+        <v>0.53</v>
       </c>
       <c r="AD35" t="inlineStr"/>
       <c r="AE35" t="inlineStr"/>
       <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="inlineStr"/>
       <c r="AH35" t="n">
-        <v>19.781408347</v>
+        <v>17.279087622</v>
       </c>
       <c r="AI35" t="n">
-        <v>617.263194</v>
+        <v>676.977167</v>
       </c>
       <c r="AJ35" t="n">
-        <v>4358.280447</v>
+        <v>6350.370165</v>
       </c>
       <c r="AK35" t="n">
-        <v>21.887281699</v>
+        <v>20.512774164</v>
+      </c>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="n">
+        <v>318.5308439999999</v>
+      </c>
+      <c r="AN35" t="inlineStr"/>
+      <c r="AO35" t="inlineStr"/>
+      <c r="AP35" t="n">
+        <v>534.1763380000002</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>1033.473262</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>714.9425279999996</v>
+      </c>
+      <c r="AS35" t="inlineStr"/>
+      <c r="AT35" t="n">
+        <v>676.9701650000006</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -3064,16 +3659,16 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>6.42</v>
+        <v>17.14</v>
       </c>
       <c r="G36" t="n">
-        <v>321.018399</v>
+        <v>327.26585</v>
       </c>
       <c r="H36" t="n">
-        <v>2594.269158</v>
+        <v>3563.3448</v>
       </c>
       <c r="I36" t="n">
-        <v>9.26</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -3084,62 +3679,81 @@
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="n">
-        <v>20.938466832</v>
+        <v>14.6</v>
       </c>
       <c r="S36" t="n">
-        <v>488.613597</v>
+        <v>648.3</v>
       </c>
       <c r="T36" t="n">
-        <v>3715.232428</v>
+        <v>5428.8</v>
       </c>
       <c r="U36" t="n">
-        <v>24.801829294</v>
+        <v>22.3</v>
       </c>
       <c r="V36" t="n">
-        <v>0.44</v>
+        <v>4.98</v>
       </c>
       <c r="W36" t="n">
-        <v>1082.216563</v>
+        <v>1032.56386</v>
       </c>
       <c r="X36" t="n">
-        <v>8880.782870999999</v>
+        <v>11980.68817</v>
       </c>
       <c r="Y36" t="n">
-        <v>3.3</v>
+        <v>2.89</v>
       </c>
       <c r="Z36" t="n">
-        <v>-1.89</v>
+        <v>0.15</v>
       </c>
       <c r="AA36" t="n">
-        <v>761.198163</v>
+        <v>705.29799</v>
       </c>
       <c r="AB36" t="n">
-        <v>6286.513712</v>
+        <v>8417.343360000001</v>
       </c>
       <c r="AC36" t="n">
-        <v>1.03</v>
+        <v>0.5</v>
       </c>
       <c r="AD36" t="inlineStr"/>
       <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="inlineStr"/>
       <c r="AH36" t="n">
-        <v>18.072165542</v>
+        <v>13.2</v>
       </c>
       <c r="AI36" t="n">
-        <v>628.88989</v>
+        <v>791.3</v>
       </c>
       <c r="AJ36" t="n">
-        <v>4987.169607</v>
+        <v>7141.7</v>
       </c>
       <c r="AK36" t="n">
-        <v>21.392642332</v>
+        <v>19.7</v>
+      </c>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="n">
+        <v>327.2658499999998</v>
+      </c>
+      <c r="AN36" t="inlineStr"/>
+      <c r="AO36" t="inlineStr"/>
+      <c r="AP36" t="n">
+        <v>648.3236619999998</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>1032.56386</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>705.2979900000009</v>
+      </c>
+      <c r="AS36" t="inlineStr"/>
+      <c r="AT36" t="n">
+        <v>791.3298349999995</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -3147,16 +3761,16 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>5.81</v>
+        <v>9.66</v>
       </c>
       <c r="G37" t="n">
-        <v>323.278948</v>
+        <v>313.07782</v>
       </c>
       <c r="H37" t="n">
-        <v>2917.548106</v>
+        <v>3876.42262</v>
       </c>
       <c r="I37" t="n">
-        <v>8.869999999999999</v>
+        <v>9.08</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -3167,80 +3781,91 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="n">
-        <v>18.5</v>
+        <v>17.3</v>
       </c>
       <c r="S37" t="n">
-        <v>531.1</v>
+        <v>609.6</v>
       </c>
       <c r="T37" t="n">
-        <v>4246.3</v>
+        <v>6038.4</v>
       </c>
       <c r="U37" t="n">
-        <v>24</v>
+        <v>21.8</v>
       </c>
       <c r="V37" t="n">
-        <v>0.65</v>
+        <v>3.66</v>
       </c>
       <c r="W37" t="n">
-        <v>1033.868177</v>
+        <v>1029.43075</v>
       </c>
       <c r="X37" t="n">
-        <v>9914.651048</v>
+        <v>13010.11892</v>
       </c>
       <c r="Y37" t="n">
-        <v>3.02</v>
+        <v>2.95</v>
       </c>
       <c r="Z37" t="n">
-        <v>-1.53</v>
+        <v>1.23</v>
       </c>
       <c r="AA37" t="n">
-        <v>710.58913</v>
+        <v>716.35294</v>
       </c>
       <c r="AB37" t="n">
-        <v>6997.102842</v>
+        <v>9133.6963</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.76</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="inlineStr"/>
       <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="inlineStr"/>
       <c r="AH37" t="n">
-        <v>17.5</v>
+        <v>16.7</v>
       </c>
       <c r="AI37" t="n">
-        <v>686.2</v>
+        <v>763</v>
       </c>
       <c r="AJ37" t="n">
-        <v>5673.4</v>
+        <v>7904.7</v>
       </c>
       <c r="AK37" t="n">
-        <v>20.9</v>
+        <v>19.4</v>
+      </c>
+      <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="n">
+        <v>313.07782</v>
+      </c>
+      <c r="AN37" t="inlineStr"/>
+      <c r="AO37" t="inlineStr"/>
+      <c r="AP37" t="n">
+        <v>609.5999999999995</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>1029.430750000001</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>716.3529399999989</v>
+      </c>
+      <c r="AS37" t="inlineStr"/>
+      <c r="AT37" t="n">
+        <v>763</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
+          <t>2019-01</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="n">
-        <v>6.88</v>
-      </c>
-      <c r="G38" t="n">
-        <v>337.099324</v>
-      </c>
-      <c r="H38" t="n">
-        <v>3483.265412</v>
-      </c>
-      <c r="I38" t="n">
-        <v>9.16</v>
-      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
@@ -3250,62 +3875,59 @@
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="n">
-        <v>23.1764565955</v>
+        <v>19.94</v>
       </c>
       <c r="S38" t="n">
-        <v>657.980574</v>
+        <v>596.76</v>
       </c>
       <c r="T38" t="n">
-        <v>5929.002637</v>
+        <v>596.76</v>
       </c>
       <c r="U38" t="n">
-        <v>24.0253526593</v>
-      </c>
-      <c r="V38" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="W38" t="n">
-        <v>1059.196371</v>
-      </c>
-      <c r="X38" t="n">
-        <v>10973.492532</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>722.0971469999999</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>7490.22712</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>-3.45</v>
-      </c>
+        <v>19.94</v>
+      </c>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr"/>
       <c r="AD38" t="inlineStr"/>
       <c r="AE38" t="inlineStr"/>
       <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="inlineStr"/>
       <c r="AH38" t="n">
-        <v>21.3731146415</v>
+        <v>20.96</v>
       </c>
       <c r="AI38" t="n">
-        <v>821.668273</v>
+        <v>853.39</v>
       </c>
       <c r="AJ38" t="n">
-        <v>7704.363903</v>
+        <v>853.39</v>
       </c>
       <c r="AK38" t="n">
-        <v>21.3214931228</v>
+        <v>20.96</v>
+      </c>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="inlineStr"/>
+      <c r="AN38" t="inlineStr"/>
+      <c r="AO38" t="inlineStr"/>
+      <c r="AP38" t="n">
+        <v>596.76</v>
+      </c>
+      <c r="AQ38" t="inlineStr"/>
+      <c r="AR38" t="inlineStr"/>
+      <c r="AS38" t="inlineStr"/>
+      <c r="AT38" t="n">
+        <v>853.39</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -3313,16 +3935,16 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
-        <v>11.49</v>
+        <v>10.21</v>
       </c>
       <c r="G39" t="n">
-        <v>350.52373</v>
+        <v>340.434381</v>
       </c>
       <c r="H39" t="n">
-        <v>3833.789142</v>
+        <v>695.257488</v>
       </c>
       <c r="I39" t="n">
-        <v>9.369999999999999</v>
+        <v>11.17</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -3333,62 +3955,81 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="n">
-        <v>22.8780145933</v>
+        <v>21</v>
       </c>
       <c r="S39" t="n">
-        <v>796.670769</v>
+        <v>350.2</v>
       </c>
       <c r="T39" t="n">
-        <v>6725.673406</v>
+        <v>947</v>
       </c>
       <c r="U39" t="n">
-        <v>23.8883305257</v>
+        <v>20.3</v>
       </c>
       <c r="V39" t="n">
-        <v>3.23</v>
+        <v>0.92</v>
       </c>
       <c r="W39" t="n">
-        <v>1065.706978</v>
+        <v>1090.388097</v>
       </c>
       <c r="X39" t="n">
-        <v>12039.19951</v>
+        <v>2208.22694</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.48</v>
+        <v>1.86</v>
       </c>
       <c r="Z39" t="n">
-        <v>-0.39</v>
+        <v>-2.81</v>
       </c>
       <c r="AA39" t="n">
-        <v>715.183249</v>
+        <v>749.953717</v>
       </c>
       <c r="AB39" t="n">
-        <v>8205.410368999999</v>
+        <v>1512.969452</v>
       </c>
       <c r="AC39" t="n">
-        <v>-3.19</v>
+        <v>-1.92</v>
       </c>
       <c r="AD39" t="inlineStr"/>
       <c r="AE39" t="inlineStr"/>
       <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="inlineStr"/>
       <c r="AH39" t="n">
-        <v>23.4905248884</v>
+        <v>17.2</v>
       </c>
       <c r="AI39" t="n">
-        <v>977.1836070000001</v>
+        <v>521.5</v>
       </c>
       <c r="AJ39" t="n">
-        <v>8681.54751</v>
+        <v>1374.9</v>
       </c>
       <c r="AK39" t="n">
-        <v>21.5618234114</v>
+        <v>19.5</v>
+      </c>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="n">
+        <v>695.257488</v>
+      </c>
+      <c r="AN39" t="inlineStr"/>
+      <c r="AO39" t="inlineStr"/>
+      <c r="AP39" t="n">
+        <v>350.24</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>2208.22694</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>1512.969452</v>
+      </c>
+      <c r="AS39" t="inlineStr"/>
+      <c r="AT39" t="n">
+        <v>521.5100000000001</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -3396,16 +4037,16 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="n">
-        <v>11.13</v>
+        <v>11.1</v>
       </c>
       <c r="G40" t="n">
-        <v>327.077014</v>
+        <v>361.569718</v>
       </c>
       <c r="H40" t="n">
-        <v>4160.866156</v>
+        <v>1056.827206</v>
       </c>
       <c r="I40" t="n">
-        <v>9.51</v>
+        <v>11.15</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -3416,72 +4057,99 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="n">
-        <v>26.6637496799</v>
+        <v>23.0161921799</v>
       </c>
       <c r="S40" t="n">
-        <v>772.150113</v>
+        <v>595.979554</v>
       </c>
       <c r="T40" t="n">
-        <v>7497.823519</v>
+        <v>1542.959452</v>
       </c>
       <c r="U40" t="n">
-        <v>24.1685215871</v>
+        <v>21.3592973201</v>
       </c>
       <c r="V40" t="n">
-        <v>3.82</v>
+        <v>-0.57</v>
       </c>
       <c r="W40" t="n">
-        <v>1063.437299</v>
+        <v>1114.326534</v>
       </c>
       <c r="X40" t="n">
-        <v>13102.636809</v>
+        <v>3322.553474</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.75</v>
+        <v>1.03</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.88</v>
+        <v>-5.34</v>
       </c>
       <c r="AA40" t="n">
-        <v>736.360284</v>
+        <v>752.756816</v>
       </c>
       <c r="AB40" t="n">
-        <v>8941.770653</v>
+        <v>2265.726268</v>
       </c>
       <c r="AC40" t="n">
-        <v>-2.87</v>
+        <v>-3.08</v>
       </c>
       <c r="AD40" t="inlineStr"/>
       <c r="AE40" t="inlineStr"/>
       <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="inlineStr"/>
       <c r="AH40" t="n">
-        <v>25.9377896584</v>
+        <v>19.4272643746</v>
       </c>
       <c r="AI40" t="n">
-        <v>960.908277</v>
+        <v>799.077302</v>
       </c>
       <c r="AJ40" t="n">
-        <v>9642.455787000001</v>
+        <v>2173.941947</v>
       </c>
       <c r="AK40" t="n">
-        <v>21.9842155362</v>
+        <v>19.4824770039</v>
+      </c>
+      <c r="AL40" t="inlineStr"/>
+      <c r="AM40" t="n">
+        <v>361.569718</v>
+      </c>
+      <c r="AN40" t="inlineStr"/>
+      <c r="AO40" t="inlineStr"/>
+      <c r="AP40" t="n">
+        <v>595.9594520000001</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>1114.326534</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>752.7568159999998</v>
+      </c>
+      <c r="AS40" t="inlineStr"/>
+      <c r="AT40" t="n">
+        <v>799.0419469999997</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2019年1月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="G41" t="n">
+        <v>348.469643</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1405.296849</v>
+      </c>
+      <c r="I41" t="n">
+        <v>10.97</v>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
@@ -3491,46 +4159,81 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="n">
-        <v>19.94</v>
+        <v>26.81328347</v>
       </c>
       <c r="S41" t="n">
-        <v>596.76</v>
+        <v>592.4709350000001</v>
       </c>
       <c r="T41" t="n">
-        <v>596.76</v>
+        <v>2135.430387</v>
       </c>
       <c r="U41" t="n">
-        <v>19.94</v>
-      </c>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
-      <c r="AA41" t="inlineStr"/>
-      <c r="AB41" t="inlineStr"/>
-      <c r="AC41" t="inlineStr"/>
+        <v>22.8249037006</v>
+      </c>
+      <c r="V41" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1140.090983</v>
+      </c>
+      <c r="X41" t="n">
+        <v>4462.644457</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>-4.35</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>791.62134</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>3057.347608</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>-3.41</v>
+      </c>
       <c r="AD41" t="inlineStr"/>
       <c r="AE41" t="inlineStr"/>
       <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="inlineStr"/>
       <c r="AH41" t="n">
-        <v>20.96</v>
+        <v>24.0186223248</v>
       </c>
       <c r="AI41" t="n">
-        <v>853.39</v>
+        <v>757.865104</v>
       </c>
       <c r="AJ41" t="n">
-        <v>853.39</v>
+        <v>2931.810012</v>
       </c>
       <c r="AK41" t="n">
-        <v>20.96</v>
+        <v>20.6230758563</v>
+      </c>
+      <c r="AL41" t="inlineStr"/>
+      <c r="AM41" t="n">
+        <v>348.4696430000001</v>
+      </c>
+      <c r="AN41" t="inlineStr"/>
+      <c r="AO41" t="inlineStr"/>
+      <c r="AP41" t="n">
+        <v>592.4709349999998</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>1140.090983000001</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>791.6213400000001</v>
+      </c>
+      <c r="AS41" t="inlineStr"/>
+      <c r="AT41" t="n">
+        <v>757.8680650000001</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -3538,16 +4241,16 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="n">
-        <v>10.21</v>
+        <v>7.51</v>
       </c>
       <c r="G42" t="n">
-        <v>340.434381</v>
+        <v>351.021987</v>
       </c>
       <c r="H42" t="n">
-        <v>695.257488</v>
+        <v>1756.318836</v>
       </c>
       <c r="I42" t="n">
-        <v>11.17</v>
+        <v>10.26</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -3558,62 +4261,81 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="n">
-        <v>21</v>
+        <v>24.1657780491</v>
       </c>
       <c r="S42" t="n">
-        <v>350.2</v>
+        <v>618.126807</v>
       </c>
       <c r="T42" t="n">
-        <v>947</v>
+        <v>2753.557194</v>
       </c>
       <c r="U42" t="n">
-        <v>20.3</v>
+        <v>23.1233802226</v>
       </c>
       <c r="V42" t="n">
-        <v>0.92</v>
+        <v>-1.51</v>
       </c>
       <c r="W42" t="n">
-        <v>1090.388097</v>
+        <v>1127.157528</v>
       </c>
       <c r="X42" t="n">
-        <v>2208.22694</v>
+        <v>5589.801985</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.86</v>
+        <v>0.25</v>
       </c>
       <c r="Z42" t="n">
-        <v>-2.81</v>
+        <v>-5.1</v>
       </c>
       <c r="AA42" t="n">
-        <v>749.953717</v>
+        <v>776.135541</v>
       </c>
       <c r="AB42" t="n">
-        <v>1512.969452</v>
+        <v>3833.483149</v>
       </c>
       <c r="AC42" t="n">
-        <v>-1.92</v>
+        <v>-3.76</v>
       </c>
       <c r="AD42" t="inlineStr"/>
       <c r="AE42" t="inlineStr"/>
       <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="inlineStr"/>
       <c r="AH42" t="n">
-        <v>17.2</v>
+        <v>21.6789198622</v>
       </c>
       <c r="AI42" t="n">
-        <v>521.5</v>
+        <v>780.120761</v>
       </c>
       <c r="AJ42" t="n">
-        <v>1374.9</v>
+        <v>3711.930773</v>
       </c>
       <c r="AK42" t="n">
-        <v>19.5</v>
+        <v>20.8434545032</v>
+      </c>
+      <c r="AL42" t="inlineStr"/>
+      <c r="AM42" t="n">
+        <v>351.0219869999999</v>
+      </c>
+      <c r="AN42" t="inlineStr"/>
+      <c r="AO42" t="inlineStr"/>
+      <c r="AP42" t="n">
+        <v>618.1268070000001</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>1127.157528</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>776.1355410000001</v>
+      </c>
+      <c r="AS42" t="inlineStr"/>
+      <c r="AT42" t="n">
+        <v>780.1207610000001</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -3621,16 +4343,16 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="n">
-        <v>11.1</v>
+        <v>7.83</v>
       </c>
       <c r="G43" t="n">
-        <v>361.569718</v>
+        <v>368.721902</v>
       </c>
       <c r="H43" t="n">
-        <v>1056.827206</v>
+        <v>2125.040738</v>
       </c>
       <c r="I43" t="n">
-        <v>11.15</v>
+        <v>9.83</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -3641,62 +4363,81 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="n">
-        <v>23.0161921799</v>
+        <v>26.462942276</v>
       </c>
       <c r="S43" t="n">
-        <v>595.979554</v>
+        <v>643.155565</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.959452</v>
+        <v>3396.712759</v>
       </c>
       <c r="U43" t="n">
-        <v>21.3592973201</v>
+        <v>23.7421099205</v>
       </c>
       <c r="V43" t="n">
-        <v>-0.57</v>
+        <v>-1.4</v>
       </c>
       <c r="W43" t="n">
-        <v>1114.326534</v>
+        <v>1131.24087</v>
       </c>
       <c r="X43" t="n">
-        <v>3322.553474</v>
+        <v>6721.042855</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.03</v>
+        <v>-0.03</v>
       </c>
       <c r="Z43" t="n">
-        <v>-5.34</v>
+        <v>-5.31</v>
       </c>
       <c r="AA43" t="n">
-        <v>752.756816</v>
+        <v>762.518969</v>
       </c>
       <c r="AB43" t="n">
-        <v>2265.726268</v>
+        <v>4596.002118</v>
       </c>
       <c r="AC43" t="n">
-        <v>-3.08</v>
+        <v>-4.02</v>
       </c>
       <c r="AD43" t="inlineStr"/>
       <c r="AE43" t="inlineStr"/>
       <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="inlineStr"/>
       <c r="AH43" t="n">
-        <v>19.4272643746</v>
+        <v>22.0083095913</v>
       </c>
       <c r="AI43" t="n">
-        <v>799.077302</v>
+        <v>816.640455</v>
       </c>
       <c r="AJ43" t="n">
-        <v>2173.941947</v>
+        <v>4528.571228</v>
       </c>
       <c r="AK43" t="n">
-        <v>19.4824770039</v>
+        <v>21.0518669586</v>
+      </c>
+      <c r="AL43" t="inlineStr"/>
+      <c r="AM43" t="n">
+        <v>368.7219020000002</v>
+      </c>
+      <c r="AN43" t="inlineStr"/>
+      <c r="AO43" t="inlineStr"/>
+      <c r="AP43" t="n">
+        <v>643.155565</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>1131.24087</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>762.5189690000002</v>
+      </c>
+      <c r="AS43" t="inlineStr"/>
+      <c r="AT43" t="n">
+        <v>816.6404549999997</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -3704,16 +4445,16 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="n">
-        <v>10.45</v>
+        <v>7.46</v>
       </c>
       <c r="G44" t="n">
-        <v>348.469643</v>
+        <v>332.911993</v>
       </c>
       <c r="H44" t="n">
-        <v>1405.296849</v>
+        <v>2457.952731</v>
       </c>
       <c r="I44" t="n">
-        <v>10.97</v>
+        <v>9.51</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -3724,62 +4465,81 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="n">
-        <v>26.81328347</v>
+        <v>26.316405151</v>
       </c>
       <c r="S44" t="n">
-        <v>592.4709350000001</v>
+        <v>608.372844</v>
       </c>
       <c r="T44" t="n">
-        <v>2135.430387</v>
+        <v>4005.085603</v>
       </c>
       <c r="U44" t="n">
-        <v>22.8249037006</v>
+        <v>24.1263659159</v>
       </c>
       <c r="V44" t="n">
-        <v>-0.26</v>
+        <v>-0.88</v>
       </c>
       <c r="W44" t="n">
-        <v>1140.090983</v>
+        <v>1066.295114</v>
       </c>
       <c r="X44" t="n">
-        <v>4462.644457</v>
+        <v>7787.337969</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.7</v>
+        <v>-0.15</v>
       </c>
       <c r="Z44" t="n">
-        <v>-4.35</v>
+        <v>-4.26</v>
       </c>
       <c r="AA44" t="n">
-        <v>791.62134</v>
+        <v>733.38312</v>
       </c>
       <c r="AB44" t="n">
-        <v>3057.347608</v>
+        <v>5329.385238</v>
       </c>
       <c r="AC44" t="n">
-        <v>-3.41</v>
+        <v>-4.05</v>
       </c>
       <c r="AD44" t="inlineStr"/>
       <c r="AE44" t="inlineStr"/>
       <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="inlineStr"/>
       <c r="AH44" t="n">
-        <v>24.0186223248</v>
+        <v>22.8929301753</v>
       </c>
       <c r="AI44" t="n">
-        <v>757.865104</v>
+        <v>758.572826</v>
       </c>
       <c r="AJ44" t="n">
-        <v>2931.810012</v>
+        <v>5287.144054</v>
       </c>
       <c r="AK44" t="n">
-        <v>20.6230758563</v>
+        <v>21.3126167142</v>
+      </c>
+      <c r="AL44" t="inlineStr"/>
+      <c r="AM44" t="n">
+        <v>332.9119929999997</v>
+      </c>
+      <c r="AN44" t="inlineStr"/>
+      <c r="AO44" t="inlineStr"/>
+      <c r="AP44" t="n">
+        <v>608.372844</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>1066.295114</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>733.3831199999995</v>
+      </c>
+      <c r="AS44" t="inlineStr"/>
+      <c r="AT44" t="n">
+        <v>758.5728260000005</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -3787,16 +4547,16 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="n">
-        <v>7.51</v>
+        <v>9.31</v>
       </c>
       <c r="G45" t="n">
-        <v>351.021987</v>
+        <v>342.195457</v>
       </c>
       <c r="H45" t="n">
-        <v>1756.318836</v>
+        <v>2800.148188</v>
       </c>
       <c r="I45" t="n">
-        <v>10.26</v>
+        <v>9.48</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -3807,62 +4567,81 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="n">
-        <v>24.1657780491</v>
+        <v>26.2264922194</v>
       </c>
       <c r="S45" t="n">
-        <v>618.126807</v>
+        <v>616.759804</v>
       </c>
       <c r="T45" t="n">
-        <v>2753.557194</v>
+        <v>4621.845407</v>
       </c>
       <c r="U45" t="n">
-        <v>23.1233802226</v>
+        <v>24.4025666881</v>
       </c>
       <c r="V45" t="n">
-        <v>-1.51</v>
+        <v>0.95</v>
       </c>
       <c r="W45" t="n">
-        <v>1127.157528</v>
+        <v>1093.404848</v>
       </c>
       <c r="X45" t="n">
-        <v>5589.801985</v>
+        <v>8880.742817</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.25</v>
+        <v>-0.02</v>
       </c>
       <c r="Z45" t="n">
-        <v>-5.1</v>
+        <v>-2.44</v>
       </c>
       <c r="AA45" t="n">
-        <v>776.135541</v>
+        <v>751.209392</v>
       </c>
       <c r="AB45" t="n">
-        <v>3833.483149</v>
+        <v>6080.59463</v>
       </c>
       <c r="AC45" t="n">
-        <v>-3.76</v>
+        <v>-3.86</v>
       </c>
       <c r="AD45" t="inlineStr"/>
       <c r="AE45" t="inlineStr"/>
       <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="inlineStr"/>
       <c r="AH45" t="n">
-        <v>21.6789198622</v>
+        <v>22.8873841492</v>
       </c>
       <c r="AI45" t="n">
-        <v>780.120761</v>
+        <v>772.826335</v>
       </c>
       <c r="AJ45" t="n">
-        <v>3711.930773</v>
+        <v>6059.970389</v>
       </c>
       <c r="AK45" t="n">
-        <v>20.8434545032</v>
+        <v>21.5111973225</v>
+      </c>
+      <c r="AL45" t="inlineStr"/>
+      <c r="AM45" t="n">
+        <v>342.1954570000003</v>
+      </c>
+      <c r="AN45" t="inlineStr"/>
+      <c r="AO45" t="inlineStr"/>
+      <c r="AP45" t="n">
+        <v>616.7598039999998</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>1093.404848</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>751.2093919999998</v>
+      </c>
+      <c r="AS45" t="inlineStr"/>
+      <c r="AT45" t="n">
+        <v>772.8263349999997</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -3870,16 +4649,16 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="n">
-        <v>7.83</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="G46" t="n">
-        <v>368.721902</v>
+        <v>346.0179</v>
       </c>
       <c r="H46" t="n">
-        <v>2125.040738</v>
+        <v>3146.166088</v>
       </c>
       <c r="I46" t="n">
-        <v>9.83</v>
+        <v>9.41</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -3890,62 +4669,81 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="n">
-        <v>26.462942276</v>
+        <v>22.2403067304</v>
       </c>
       <c r="S46" t="n">
-        <v>643.155565</v>
+        <v>649.176656</v>
       </c>
       <c r="T46" t="n">
-        <v>3396.712759</v>
+        <v>5271.022063</v>
       </c>
       <c r="U46" t="n">
-        <v>23.7421099205</v>
+        <v>24.1321423434</v>
       </c>
       <c r="V46" t="n">
-        <v>-1.4</v>
+        <v>-0.04</v>
       </c>
       <c r="W46" t="n">
-        <v>1131.24087</v>
+        <v>1033.553344</v>
       </c>
       <c r="X46" t="n">
-        <v>6721.042855</v>
+        <v>9914.296161</v>
       </c>
       <c r="Y46" t="n">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="Z46" t="n">
-        <v>-5.31</v>
+        <v>-3.99</v>
       </c>
       <c r="AA46" t="n">
-        <v>762.518969</v>
+        <v>687.535343</v>
       </c>
       <c r="AB46" t="n">
-        <v>4596.002118</v>
+        <v>6768.129973</v>
       </c>
       <c r="AC46" t="n">
-        <v>-4.02</v>
+        <v>-3.87</v>
       </c>
       <c r="AD46" t="inlineStr"/>
       <c r="AE46" t="inlineStr"/>
       <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="inlineStr"/>
       <c r="AH46" t="n">
-        <v>22.0083095913</v>
+        <v>19.8918787965</v>
       </c>
       <c r="AI46" t="n">
-        <v>816.640455</v>
+        <v>822.725241</v>
       </c>
       <c r="AJ46" t="n">
-        <v>4528.571228</v>
+        <v>6882.69563</v>
       </c>
       <c r="AK46" t="n">
-        <v>21.0518669586</v>
+        <v>21.3153333891</v>
+      </c>
+      <c r="AL46" t="inlineStr"/>
+      <c r="AM46" t="n">
+        <v>346.0178999999998</v>
+      </c>
+      <c r="AN46" t="inlineStr"/>
+      <c r="AO46" t="inlineStr"/>
+      <c r="AP46" t="n">
+        <v>649.1766560000005</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>1033.553344</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>687.5353430000005</v>
+      </c>
+      <c r="AS46" t="inlineStr"/>
+      <c r="AT46" t="n">
+        <v>822.7252410000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -3953,16 +4751,16 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="n">
-        <v>7.46</v>
+        <v>6.88</v>
       </c>
       <c r="G47" t="n">
-        <v>332.911993</v>
+        <v>337.099324</v>
       </c>
       <c r="H47" t="n">
-        <v>2457.952731</v>
+        <v>3483.265412</v>
       </c>
       <c r="I47" t="n">
-        <v>9.51</v>
+        <v>9.16</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -3973,62 +4771,81 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="n">
-        <v>26.316405151</v>
+        <v>23.1764565955</v>
       </c>
       <c r="S47" t="n">
-        <v>608.372844</v>
+        <v>657.980574</v>
       </c>
       <c r="T47" t="n">
-        <v>4005.085603</v>
+        <v>5929.002637</v>
       </c>
       <c r="U47" t="n">
-        <v>24.1263659159</v>
+        <v>24.0253526593</v>
       </c>
       <c r="V47" t="n">
-        <v>-0.88</v>
+        <v>2.56</v>
       </c>
       <c r="W47" t="n">
-        <v>1066.295114</v>
+        <v>1059.196371</v>
       </c>
       <c r="X47" t="n">
-        <v>7787.337969</v>
+        <v>10973.492532</v>
       </c>
       <c r="Y47" t="n">
-        <v>-0.15</v>
+        <v>0.22</v>
       </c>
       <c r="Z47" t="n">
-        <v>-4.26</v>
+        <v>0.66</v>
       </c>
       <c r="AA47" t="n">
-        <v>733.38312</v>
+        <v>722.0971469999999</v>
       </c>
       <c r="AB47" t="n">
-        <v>5329.385238</v>
+        <v>7490.22712</v>
       </c>
       <c r="AC47" t="n">
-        <v>-4.05</v>
+        <v>-3.45</v>
       </c>
       <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="inlineStr"/>
       <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="inlineStr"/>
       <c r="AH47" t="n">
-        <v>22.8929301753</v>
+        <v>21.3731146415</v>
       </c>
       <c r="AI47" t="n">
-        <v>758.572826</v>
+        <v>821.668273</v>
       </c>
       <c r="AJ47" t="n">
-        <v>5287.144054</v>
+        <v>7704.363903</v>
       </c>
       <c r="AK47" t="n">
-        <v>21.3126167142</v>
+        <v>21.3214931228</v>
+      </c>
+      <c r="AL47" t="inlineStr"/>
+      <c r="AM47" t="n">
+        <v>337.0993240000003</v>
+      </c>
+      <c r="AN47" t="inlineStr"/>
+      <c r="AO47" t="inlineStr"/>
+      <c r="AP47" t="n">
+        <v>657.9805739999993</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>1059.196371</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>722.0971469999995</v>
+      </c>
+      <c r="AS47" t="inlineStr"/>
+      <c r="AT47" t="n">
+        <v>821.6682730000002</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -4036,16 +4853,16 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="n">
-        <v>9.31</v>
+        <v>11.49</v>
       </c>
       <c r="G48" t="n">
-        <v>342.195457</v>
+        <v>350.52373</v>
       </c>
       <c r="H48" t="n">
-        <v>2800.148188</v>
+        <v>3833.789142</v>
       </c>
       <c r="I48" t="n">
-        <v>9.48</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -4056,62 +4873,81 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="n">
-        <v>26.2264922194</v>
+        <v>22.8780145933</v>
       </c>
       <c r="S48" t="n">
-        <v>616.759804</v>
+        <v>796.670769</v>
       </c>
       <c r="T48" t="n">
-        <v>4621.845407</v>
+        <v>6725.673406</v>
       </c>
       <c r="U48" t="n">
-        <v>24.4025666881</v>
+        <v>23.8883305257</v>
       </c>
       <c r="V48" t="n">
-        <v>0.95</v>
+        <v>3.23</v>
       </c>
       <c r="W48" t="n">
-        <v>1093.404848</v>
+        <v>1065.706978</v>
       </c>
       <c r="X48" t="n">
-        <v>8880.742817</v>
+        <v>12039.19951</v>
       </c>
       <c r="Y48" t="n">
-        <v>-0.02</v>
+        <v>0.48</v>
       </c>
       <c r="Z48" t="n">
-        <v>-2.44</v>
+        <v>-0.39</v>
       </c>
       <c r="AA48" t="n">
-        <v>751.209392</v>
+        <v>715.183249</v>
       </c>
       <c r="AB48" t="n">
-        <v>6080.59463</v>
+        <v>8205.410368999999</v>
       </c>
       <c r="AC48" t="n">
-        <v>-3.86</v>
+        <v>-3.19</v>
       </c>
       <c r="AD48" t="inlineStr"/>
       <c r="AE48" t="inlineStr"/>
       <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="inlineStr"/>
       <c r="AH48" t="n">
-        <v>22.8873841492</v>
+        <v>23.4905248884</v>
       </c>
       <c r="AI48" t="n">
-        <v>772.826335</v>
+        <v>977.1836070000001</v>
       </c>
       <c r="AJ48" t="n">
-        <v>6059.970389</v>
+        <v>8681.54751</v>
       </c>
       <c r="AK48" t="n">
-        <v>21.5111973225</v>
+        <v>21.5618234114</v>
+      </c>
+      <c r="AL48" t="inlineStr"/>
+      <c r="AM48" t="n">
+        <v>350.5237299999999</v>
+      </c>
+      <c r="AN48" t="inlineStr"/>
+      <c r="AO48" t="inlineStr"/>
+      <c r="AP48" t="n">
+        <v>796.6707690000003</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>1065.706978</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>715.1832489999997</v>
+      </c>
+      <c r="AS48" t="inlineStr"/>
+      <c r="AT48" t="n">
+        <v>977.1836069999999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -4119,16 +4955,16 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="n">
-        <v>8.859999999999999</v>
+        <v>11.13</v>
       </c>
       <c r="G49" t="n">
-        <v>346.0179</v>
+        <v>327.077014</v>
       </c>
       <c r="H49" t="n">
-        <v>3146.166088</v>
+        <v>4160.866156</v>
       </c>
       <c r="I49" t="n">
-        <v>9.41</v>
+        <v>9.51</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -4139,2677 +4975,3311 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="n">
-        <v>22.2403067304</v>
+        <v>26.6637496799</v>
       </c>
       <c r="S49" t="n">
-        <v>649.176656</v>
+        <v>772.150113</v>
       </c>
       <c r="T49" t="n">
-        <v>5271.022063</v>
+        <v>7497.823519</v>
       </c>
       <c r="U49" t="n">
-        <v>24.1321423434</v>
+        <v>24.1685215871</v>
       </c>
       <c r="V49" t="n">
-        <v>-0.04</v>
+        <v>3.82</v>
       </c>
       <c r="W49" t="n">
-        <v>1033.553344</v>
+        <v>1063.437299</v>
       </c>
       <c r="X49" t="n">
-        <v>9914.296161</v>
+        <v>13102.636809</v>
       </c>
       <c r="Y49" t="n">
-        <v>-0.02</v>
+        <v>0.75</v>
       </c>
       <c r="Z49" t="n">
-        <v>-3.99</v>
+        <v>0.88</v>
       </c>
       <c r="AA49" t="n">
-        <v>687.535343</v>
+        <v>736.360284</v>
       </c>
       <c r="AB49" t="n">
-        <v>6768.129973</v>
+        <v>8941.770653</v>
       </c>
       <c r="AC49" t="n">
-        <v>-3.87</v>
+        <v>-2.87</v>
       </c>
       <c r="AD49" t="inlineStr"/>
       <c r="AE49" t="inlineStr"/>
       <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="inlineStr"/>
       <c r="AH49" t="n">
-        <v>19.8918787965</v>
+        <v>25.9377896584</v>
       </c>
       <c r="AI49" t="n">
-        <v>822.725241</v>
+        <v>960.908277</v>
       </c>
       <c r="AJ49" t="n">
-        <v>6882.69563</v>
+        <v>9642.455787000001</v>
       </c>
       <c r="AK49" t="n">
-        <v>21.3153333891</v>
+        <v>21.9842155362</v>
+      </c>
+      <c r="AL49" t="inlineStr"/>
+      <c r="AM49" t="n">
+        <v>327.077014</v>
+      </c>
+      <c r="AN49" t="inlineStr"/>
+      <c r="AO49" t="inlineStr"/>
+      <c r="AP49" t="n">
+        <v>772.1501129999997</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>1063.437298999999</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>736.3602840000003</v>
+      </c>
+      <c r="AS49" t="inlineStr"/>
+      <c r="AT49" t="n">
+        <v>960.9082770000005</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-3.8329862867</v>
+        <v>-0.9418773005</v>
       </c>
       <c r="C50" t="n">
-        <v>60.063979</v>
+        <v>39.398402</v>
       </c>
       <c r="D50" t="n">
-        <v>622.013707</v>
+        <v>88.62591</v>
       </c>
       <c r="E50" t="n">
-        <v>2.991999516</v>
+        <v>-15.7753621539</v>
       </c>
       <c r="F50" t="n">
-        <v>8.67</v>
+        <v>8.57</v>
       </c>
       <c r="G50" t="n">
-        <v>378.06</v>
+        <v>367.089557</v>
       </c>
       <c r="H50" t="n">
-        <v>3871.61</v>
+        <v>753.1229</v>
       </c>
       <c r="I50" t="n">
-        <v>11.21</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="J50" t="n">
-        <v>50.4456657772</v>
+        <v>-10.9058164025</v>
       </c>
       <c r="K50" t="n">
-        <v>96.99562</v>
+        <v>34.140149</v>
       </c>
       <c r="L50" t="n">
-        <v>837.123396</v>
+        <v>89.940217</v>
       </c>
       <c r="M50" t="n">
-        <v>42.5298531893</v>
+        <v>-9.205269299999999</v>
       </c>
       <c r="N50" t="n">
-        <v>22.8018079247</v>
+        <v>7.6736004942</v>
       </c>
       <c r="O50" t="n">
-        <v>421.771947</v>
+        <v>193.343417</v>
       </c>
       <c r="P50" t="n">
-        <v>3557.768123</v>
+        <v>442.522537</v>
       </c>
       <c r="Q50" t="n">
-        <v>13.4105201343</v>
+        <v>-9.2675035242</v>
       </c>
       <c r="R50" t="n">
-        <v>23.2633510849</v>
+        <v>4.0544246101</v>
       </c>
       <c r="S50" t="n">
-        <v>811.048905</v>
+        <v>364.418126</v>
       </c>
       <c r="T50" t="n">
-        <v>6909.798933</v>
+        <v>864.904477</v>
       </c>
       <c r="U50" t="n">
-        <v>16.5423487903</v>
+        <v>-8.667071093400001</v>
       </c>
       <c r="V50" t="n">
-        <v>3.56</v>
+        <v>0.95</v>
       </c>
       <c r="W50" t="n">
-        <v>1095.12</v>
+        <v>1100.732964</v>
       </c>
       <c r="X50" t="n">
-        <v>11322.93</v>
+        <v>2242.060585</v>
       </c>
       <c r="Y50" t="n">
-        <v>3.25</v>
+        <v>1.53</v>
       </c>
       <c r="Z50" t="n">
-        <v>1.06</v>
+        <v>-2.47</v>
       </c>
       <c r="AA50" t="n">
-        <v>717.0700000000001</v>
+        <v>733.643406</v>
       </c>
       <c r="AB50" t="n">
-        <v>7451.32</v>
+        <v>1488.937684</v>
       </c>
       <c r="AC50" t="n">
-        <v>-0.45</v>
+        <v>-1.75</v>
       </c>
       <c r="AD50" t="n">
-        <v>-18.6156398675</v>
+        <v>15.2351205898</v>
       </c>
       <c r="AE50" t="n">
-        <v>31.257021</v>
+        <v>33.698567</v>
       </c>
       <c r="AF50" t="n">
-        <v>334.71225</v>
+        <v>72.492375</v>
       </c>
       <c r="AG50" t="n">
-        <v>-3.1235113238</v>
+        <v>-1.1369438128</v>
       </c>
       <c r="AH50" t="n">
-        <v>19.18592091</v>
+        <v>3.2776659585</v>
       </c>
       <c r="AI50" t="n">
-        <v>979.312898</v>
+        <v>538.565521</v>
       </c>
       <c r="AJ50" t="n">
-        <v>8796.167672</v>
+        <v>1286.057938</v>
       </c>
       <c r="AK50" t="n">
-        <v>14.1712383105</v>
+        <v>-6.459305454</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>88.62591</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>753.1229</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>89.940217</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>442.522537</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>864.904477</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>2242.060585</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>1488.937684</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>72.492375</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>1286.057938</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-2.994358164</v>
+        <v>6.7174180159</v>
       </c>
       <c r="C51" t="n">
-        <v>73.131691</v>
+        <v>66.89760099999999</v>
       </c>
       <c r="D51" t="n">
-        <v>695.145398</v>
+        <v>155.523511</v>
       </c>
       <c r="E51" t="n">
-        <v>2.3276621441</v>
+        <v>-7.3781362427</v>
       </c>
       <c r="F51" t="n">
-        <v>15.02</v>
+        <v>11.94</v>
       </c>
       <c r="G51" t="n">
-        <v>403.31</v>
+        <v>405.665757</v>
       </c>
       <c r="H51" t="n">
-        <v>4274.91</v>
+        <v>1158.788657</v>
       </c>
       <c r="I51" t="n">
-        <v>11.56</v>
+        <v>9.82</v>
       </c>
       <c r="J51" t="n">
-        <v>57.5983026482</v>
+        <v>34.0626365174</v>
       </c>
       <c r="K51" t="n">
-        <v>121.362494</v>
+        <v>77.785095</v>
       </c>
       <c r="L51" t="n">
-        <v>958.48589</v>
+        <v>167.725312</v>
       </c>
       <c r="M51" t="n">
-        <v>44.2765256549</v>
+        <v>6.7767908884</v>
       </c>
       <c r="N51" t="n">
-        <v>20.9696859468</v>
+        <v>12.5634436718</v>
       </c>
       <c r="O51" t="n">
-        <v>501.363678</v>
+        <v>352.374911</v>
       </c>
       <c r="P51" t="n">
-        <v>4059.131801</v>
+        <v>794.8974480000001</v>
       </c>
       <c r="Q51" t="n">
-        <v>14.2926557513</v>
+        <v>-0.733092028</v>
       </c>
       <c r="R51" t="n">
-        <v>20.4312362564</v>
+        <v>12.2693371793</v>
       </c>
       <c r="S51" t="n">
-        <v>959.440456</v>
+        <v>669.102295</v>
       </c>
       <c r="T51" t="n">
-        <v>7869.239389</v>
+        <v>1534.006772</v>
       </c>
       <c r="U51" t="n">
-        <v>17.0029960417</v>
+        <v>-0.5802278205</v>
       </c>
       <c r="V51" t="n">
-        <v>6.15</v>
+        <v>2.44</v>
       </c>
       <c r="W51" t="n">
-        <v>1128.21</v>
+        <v>1140.843688</v>
       </c>
       <c r="X51" t="n">
-        <v>12451.14</v>
+        <v>3382.904273</v>
       </c>
       <c r="Y51" t="n">
-        <v>3.51</v>
+        <v>1.84</v>
       </c>
       <c r="Z51" t="n">
-        <v>1.78</v>
+        <v>-2.14</v>
       </c>
       <c r="AA51" t="n">
-        <v>724.91</v>
+        <v>735.1779320000001</v>
       </c>
       <c r="AB51" t="n">
-        <v>8176.23</v>
+        <v>2224.115616</v>
       </c>
       <c r="AC51" t="n">
-        <v>-0.26</v>
+        <v>-1.88</v>
       </c>
       <c r="AD51" t="n">
-        <v>-17.3176185643</v>
+        <v>12.0154141007</v>
       </c>
       <c r="AE51" t="n">
-        <v>37.312409</v>
+        <v>41.5572</v>
       </c>
       <c r="AF51" t="n">
-        <v>372.024659</v>
+        <v>114.049575</v>
       </c>
       <c r="AG51" t="n">
-        <v>-4.7632744732</v>
+        <v>3.2818362715</v>
       </c>
       <c r="AH51" t="n">
-        <v>15.8751381919</v>
+        <v>13.3969256853</v>
       </c>
       <c r="AI51" t="n">
-        <v>1132.312855</v>
+        <v>906.1324519999999</v>
       </c>
       <c r="AJ51" t="n">
-        <v>9928.480527</v>
+        <v>2192.19039</v>
       </c>
       <c r="AK51" t="n">
-        <v>14.3630270475</v>
+        <v>0.8392798701</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>66.89760100000001</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>405.6657570000001</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>77.785095</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>352.3749110000001</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>669.1022949999999</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>1140.843688</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>735.1779320000001</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>41.55720000000001</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>906.1324520000003</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-1.7</v>
+        <v>11.6573402193</v>
       </c>
       <c r="C52" t="n">
-        <v>71.24902899999999</v>
+        <v>66.88503799999999</v>
       </c>
       <c r="D52" t="n">
-        <v>766.394427</v>
+        <v>222.408549</v>
       </c>
       <c r="E52" t="n">
-        <v>1.94</v>
+        <v>-2.3729026355</v>
       </c>
       <c r="F52" t="n">
-        <v>17.48</v>
+        <v>18.84</v>
       </c>
       <c r="G52" t="n">
-        <v>397.94</v>
+        <v>406.318913</v>
       </c>
       <c r="H52" t="n">
-        <v>4672.85</v>
+        <v>1565.10757</v>
       </c>
       <c r="I52" t="n">
-        <v>12.04</v>
+        <v>12.03</v>
       </c>
       <c r="J52" t="n">
-        <v>38.58</v>
+        <v>74.7245218418</v>
       </c>
       <c r="K52" t="n">
-        <v>114.914053</v>
+        <v>105.825651</v>
       </c>
       <c r="L52" t="n">
-        <v>1073.399943</v>
+        <v>273.550963</v>
       </c>
       <c r="M52" t="n">
-        <v>43.64</v>
+        <v>25.6853511232</v>
       </c>
       <c r="N52" t="n">
-        <v>21.17</v>
+        <v>15.6817010356</v>
       </c>
       <c r="O52" t="n">
-        <v>472.192613</v>
+        <v>360.169966</v>
       </c>
       <c r="P52" t="n">
-        <v>4531.324414</v>
+        <v>1155.067414</v>
       </c>
       <c r="Q52" t="n">
-        <v>14.97</v>
+        <v>3.8623695059</v>
       </c>
       <c r="R52" t="n">
-        <v>19.95</v>
+        <v>21.6736594851</v>
       </c>
       <c r="S52" t="n">
-        <v>926.194846</v>
+        <v>720.881068</v>
       </c>
       <c r="T52" t="n">
-        <v>8795.434235000001</v>
+        <v>2254.88784</v>
       </c>
       <c r="U52" t="n">
-        <v>17.31</v>
+        <v>5.5940691735</v>
       </c>
       <c r="V52" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="W52" t="n">
-        <v>1112.98</v>
+        <v>1179.212753</v>
       </c>
       <c r="X52" t="n">
-        <v>13564.11</v>
+        <v>4562.117026</v>
       </c>
       <c r="Y52" t="n">
-        <v>3.57</v>
+        <v>2.29</v>
       </c>
       <c r="Z52" t="n">
-        <v>-1.78</v>
+        <v>-2.94</v>
       </c>
       <c r="AA52" t="n">
-        <v>715.04</v>
+        <v>772.89374</v>
       </c>
       <c r="AB52" t="n">
-        <v>8891.26</v>
+        <v>2997.009356</v>
       </c>
       <c r="AC52" t="n">
-        <v>-0.38</v>
+        <v>-2.16</v>
       </c>
       <c r="AD52" t="n">
-        <v>-16.5</v>
+        <v>0.7973340791</v>
       </c>
       <c r="AE52" t="n">
-        <v>34.212062</v>
+        <v>33.72856</v>
       </c>
       <c r="AF52" t="n">
-        <v>406.236721</v>
+        <v>147.778135</v>
       </c>
       <c r="AG52" t="n">
-        <v>-5.88</v>
+        <v>2.7040522382</v>
       </c>
       <c r="AH52" t="n">
-        <v>15.45</v>
+        <v>18.4859135565</v>
       </c>
       <c r="AI52" t="n">
-        <v>1109.342606</v>
+        <v>897.963392</v>
       </c>
       <c r="AJ52" t="n">
-        <v>11037.823133</v>
+        <v>3090.153782</v>
       </c>
       <c r="AK52" t="n">
-        <v>14.47</v>
+        <v>5.4008878253</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>66.88503799999998</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>406.3189129999998</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>105.825651</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>360.169966</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>720.8810679999999</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>1179.212753</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>772.89374</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>33.72855999999999</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>897.9633919999997</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.9418773005</v>
+        <v>13.866244742</v>
       </c>
       <c r="C53" t="n">
-        <v>39.398402</v>
+        <v>69.651802</v>
       </c>
       <c r="D53" t="n">
-        <v>88.62591</v>
+        <v>292.060351</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.7753621539</v>
+        <v>1.0644689078</v>
       </c>
       <c r="F53" t="n">
-        <v>8.57</v>
+        <v>12.94</v>
       </c>
       <c r="G53" t="n">
-        <v>367.089557</v>
+        <v>399.797576</v>
       </c>
       <c r="H53" t="n">
-        <v>753.1229</v>
+        <v>1964.905146</v>
       </c>
       <c r="I53" t="n">
-        <v>8.720000000000001</v>
+        <v>12.21</v>
       </c>
       <c r="J53" t="n">
-        <v>-10.9058164025</v>
+        <v>50.2200566426</v>
       </c>
       <c r="K53" t="n">
-        <v>34.140149</v>
+        <v>91.342028</v>
       </c>
       <c r="L53" t="n">
-        <v>89.940217</v>
+        <v>364.892991</v>
       </c>
       <c r="M53" t="n">
-        <v>-9.205269299999999</v>
+        <v>31.0429695888</v>
       </c>
       <c r="N53" t="n">
-        <v>7.6736004942</v>
+        <v>19.9052523664</v>
       </c>
       <c r="O53" t="n">
-        <v>193.343417</v>
+        <v>393.408898</v>
       </c>
       <c r="P53" t="n">
-        <v>442.522537</v>
+        <v>1548.476312</v>
       </c>
       <c r="Q53" t="n">
-        <v>-9.2675035242</v>
+        <v>7.5171522893</v>
       </c>
       <c r="R53" t="n">
-        <v>4.0544246101</v>
+        <v>24.8730311093</v>
       </c>
       <c r="S53" t="n">
-        <v>364.418126</v>
+        <v>771.87368</v>
       </c>
       <c r="T53" t="n">
-        <v>864.904477</v>
+        <v>3026.76152</v>
       </c>
       <c r="U53" t="n">
-        <v>-8.667071093400001</v>
+        <v>9.9218685777</v>
       </c>
       <c r="V53" t="n">
-        <v>0.95</v>
+        <v>4.69</v>
       </c>
       <c r="W53" t="n">
-        <v>1100.732964</v>
+        <v>1179.037299</v>
       </c>
       <c r="X53" t="n">
-        <v>2242.060585</v>
+        <v>5741.154325</v>
       </c>
       <c r="Y53" t="n">
-        <v>1.53</v>
+        <v>2.77</v>
       </c>
       <c r="Z53" t="n">
-        <v>-2.47</v>
+        <v>0.91</v>
       </c>
       <c r="AA53" t="n">
-        <v>733.643406</v>
+        <v>779.239823</v>
       </c>
       <c r="AB53" t="n">
-        <v>1488.937684</v>
+        <v>3776.249179</v>
       </c>
       <c r="AC53" t="n">
-        <v>-1.75</v>
+        <v>-1.54</v>
       </c>
       <c r="AD53" t="n">
-        <v>15.2351205898</v>
+        <v>4.3054070875</v>
       </c>
       <c r="AE53" t="n">
-        <v>33.698567</v>
+        <v>34.173907</v>
       </c>
       <c r="AF53" t="n">
-        <v>72.492375</v>
+        <v>181.952042</v>
       </c>
       <c r="AG53" t="n">
-        <v>-1.1369438128</v>
+        <v>3.0010547541</v>
       </c>
       <c r="AH53" t="n">
-        <v>3.2776659585</v>
+        <v>21.9199492628</v>
       </c>
       <c r="AI53" t="n">
-        <v>538.565521</v>
+        <v>951.122836</v>
       </c>
       <c r="AJ53" t="n">
-        <v>1286.057938</v>
+        <v>4041.276618</v>
       </c>
       <c r="AK53" t="n">
-        <v>-6.459305454</v>
+        <v>8.872628967000001</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>69.65180200000003</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>399.7975760000002</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>91.34202799999997</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>393.4088979999999</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>771.8736800000001</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>1179.037299000001</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>779.2398229999999</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>34.17390700000001</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>951.122836</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>6.7174180159</v>
+        <v>9.5331918996</v>
       </c>
       <c r="C54" t="n">
-        <v>66.89760099999999</v>
+        <v>72.815736</v>
       </c>
       <c r="D54" t="n">
-        <v>155.523511</v>
+        <v>364.876087</v>
       </c>
       <c r="E54" t="n">
-        <v>-7.3781362427</v>
+        <v>2.6482811931</v>
       </c>
       <c r="F54" t="n">
-        <v>11.94</v>
+        <v>11.02</v>
       </c>
       <c r="G54" t="n">
-        <v>405.665757</v>
+        <v>397.61</v>
       </c>
       <c r="H54" t="n">
-        <v>1158.788657</v>
+        <v>2362.51</v>
       </c>
       <c r="I54" t="n">
-        <v>9.82</v>
+        <v>12.01</v>
       </c>
       <c r="J54" t="n">
-        <v>34.0626365174</v>
+        <v>59.6511098975</v>
       </c>
       <c r="K54" t="n">
-        <v>77.785095</v>
+        <v>96.06483</v>
       </c>
       <c r="L54" t="n">
-        <v>167.725312</v>
+        <v>460.957821</v>
       </c>
       <c r="M54" t="n">
-        <v>6.7767908884</v>
+        <v>36.1264777235</v>
       </c>
       <c r="N54" t="n">
-        <v>12.5634436718</v>
+        <v>18.5582350544</v>
       </c>
       <c r="O54" t="n">
-        <v>352.374911</v>
+        <v>405.815003</v>
       </c>
       <c r="P54" t="n">
-        <v>794.8974480000001</v>
+        <v>1954.291315</v>
       </c>
       <c r="Q54" t="n">
-        <v>-0.733092028</v>
+        <v>9.6373545075</v>
       </c>
       <c r="R54" t="n">
-        <v>12.2693371793</v>
+        <v>23.9269239628</v>
       </c>
       <c r="S54" t="n">
-        <v>669.102295</v>
+        <v>797.042908</v>
       </c>
       <c r="T54" t="n">
-        <v>1534.006772</v>
+        <v>3823.804428</v>
       </c>
       <c r="U54" t="n">
-        <v>-0.5802278205</v>
+        <v>12.5736763542</v>
       </c>
       <c r="V54" t="n">
-        <v>2.44</v>
+        <v>5.02</v>
       </c>
       <c r="W54" t="n">
-        <v>1140.843688</v>
+        <v>1185.52</v>
       </c>
       <c r="X54" t="n">
-        <v>3382.904273</v>
+        <v>6926.68</v>
       </c>
       <c r="Y54" t="n">
-        <v>1.84</v>
+        <v>3.15</v>
       </c>
       <c r="Z54" t="n">
-        <v>-2.14</v>
+        <v>2.23</v>
       </c>
       <c r="AA54" t="n">
-        <v>735.1779320000001</v>
+        <v>787.92</v>
       </c>
       <c r="AB54" t="n">
-        <v>2224.115616</v>
+        <v>4564.17</v>
       </c>
       <c r="AC54" t="n">
-        <v>-1.88</v>
+        <v>-0.91</v>
       </c>
       <c r="AD54" t="n">
-        <v>12.0154141007</v>
+        <v>3.4829338269</v>
       </c>
       <c r="AE54" t="n">
-        <v>41.5572</v>
+        <v>33.861727</v>
       </c>
       <c r="AF54" t="n">
-        <v>114.049575</v>
+        <v>215.813769</v>
       </c>
       <c r="AG54" t="n">
-        <v>3.2818362715</v>
+        <v>3.0763657491</v>
       </c>
       <c r="AH54" t="n">
-        <v>13.3969256853</v>
+        <v>20.8554310477</v>
       </c>
       <c r="AI54" t="n">
-        <v>906.1324519999999</v>
+        <v>986.954342</v>
       </c>
       <c r="AJ54" t="n">
-        <v>2192.19039</v>
+        <v>5028.23096</v>
       </c>
       <c r="AK54" t="n">
-        <v>0.8392798701</v>
+        <v>11.033496148</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>72.81573599999996</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>397.6048540000002</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>96.06483000000003</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>405.8150029999999</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>797.0429079999999</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>1185.525675</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>787.9208210000002</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>33.861727</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>986.954342</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>11.6573402193</v>
+        <v>4.2556545893</v>
       </c>
       <c r="C55" t="n">
-        <v>66.88503799999999</v>
+        <v>63.893031</v>
       </c>
       <c r="D55" t="n">
-        <v>222.408549</v>
+        <v>428.769314</v>
       </c>
       <c r="E55" t="n">
-        <v>-2.3729026355</v>
+        <v>2.8847011611</v>
       </c>
       <c r="F55" t="n">
-        <v>18.84</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="G55" t="n">
-        <v>406.318913</v>
+        <v>366.5</v>
       </c>
       <c r="H55" t="n">
-        <v>1565.10757</v>
+        <v>2729.01</v>
       </c>
       <c r="I55" t="n">
-        <v>12.03</v>
+        <v>11.47</v>
       </c>
       <c r="J55" t="n">
-        <v>74.7245218418</v>
+        <v>46.7037616808</v>
       </c>
       <c r="K55" t="n">
-        <v>105.825651</v>
+        <v>89.831154</v>
       </c>
       <c r="L55" t="n">
-        <v>273.550963</v>
+        <v>550.788992</v>
       </c>
       <c r="M55" t="n">
-        <v>25.6853511232</v>
+        <v>37.7462560517</v>
       </c>
       <c r="N55" t="n">
-        <v>15.6817010356</v>
+        <v>13.5630524562</v>
       </c>
       <c r="O55" t="n">
-        <v>360.169966</v>
+        <v>370.698797</v>
       </c>
       <c r="P55" t="n">
-        <v>1155.067414</v>
+        <v>2324.990863</v>
       </c>
       <c r="Q55" t="n">
-        <v>3.8623695059</v>
+        <v>10.245019447</v>
       </c>
       <c r="R55" t="n">
-        <v>21.6736594851</v>
+        <v>18.8901176529</v>
       </c>
       <c r="S55" t="n">
-        <v>720.881068</v>
+        <v>723.29519</v>
       </c>
       <c r="T55" t="n">
-        <v>2254.88784</v>
+        <v>4547.100552</v>
       </c>
       <c r="U55" t="n">
-        <v>5.5940691735</v>
+        <v>13.5331676455</v>
       </c>
       <c r="V55" t="n">
-        <v>3.6</v>
+        <v>3.11</v>
       </c>
       <c r="W55" t="n">
-        <v>1179.212753</v>
+        <v>1100.39</v>
       </c>
       <c r="X55" t="n">
-        <v>4562.117026</v>
+        <v>8027.07</v>
       </c>
       <c r="Y55" t="n">
-        <v>2.29</v>
+        <v>3.14</v>
       </c>
       <c r="Z55" t="n">
-        <v>-2.94</v>
+        <v>0.78</v>
       </c>
       <c r="AA55" t="n">
-        <v>772.89374</v>
+        <v>733.89</v>
       </c>
       <c r="AB55" t="n">
-        <v>2997.009356</v>
+        <v>5298.06</v>
       </c>
       <c r="AC55" t="n">
-        <v>-2.16</v>
+        <v>-0.68</v>
       </c>
       <c r="AD55" t="n">
-        <v>0.7973340791</v>
+        <v>-5.9165346046</v>
       </c>
       <c r="AE55" t="n">
-        <v>33.72856</v>
+        <v>29.17472</v>
       </c>
       <c r="AF55" t="n">
-        <v>147.778135</v>
+        <v>244.988489</v>
       </c>
       <c r="AG55" t="n">
-        <v>2.7040522382</v>
+        <v>1.916277452</v>
       </c>
       <c r="AH55" t="n">
-        <v>18.4859135565</v>
+        <v>16.1712087219</v>
       </c>
       <c r="AI55" t="n">
-        <v>897.963392</v>
+        <v>881.2432209999999</v>
       </c>
       <c r="AJ55" t="n">
-        <v>3090.153782</v>
+        <v>5909.474086</v>
       </c>
       <c r="AK55" t="n">
-        <v>5.4008878253</v>
+        <v>11.7706275003</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>63.89322700000002</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>366.5</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>89.83117099999998</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>370.699548</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>723.296124</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>1100.389999999999</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>733.8900000000003</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>29.17471999999998</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>881.2431260000003</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>13.866244742</v>
+        <v>4.1686392992</v>
       </c>
       <c r="C56" t="n">
-        <v>69.651802</v>
+        <v>63.583927</v>
       </c>
       <c r="D56" t="n">
-        <v>292.060351</v>
+        <v>492.353241</v>
       </c>
       <c r="E56" t="n">
-        <v>1.0644689078</v>
+        <v>3.0487300329</v>
       </c>
       <c r="F56" t="n">
-        <v>12.94</v>
+        <v>12.57</v>
       </c>
       <c r="G56" t="n">
-        <v>399.797576</v>
+        <v>379</v>
       </c>
       <c r="H56" t="n">
-        <v>1964.905146</v>
+        <v>3108.02</v>
       </c>
       <c r="I56" t="n">
-        <v>12.21</v>
+        <v>11.61</v>
       </c>
       <c r="J56" t="n">
-        <v>50.2200566426</v>
+        <v>52.8517545732</v>
       </c>
       <c r="K56" t="n">
-        <v>91.342028</v>
+        <v>92.35624</v>
       </c>
       <c r="L56" t="n">
-        <v>364.892991</v>
+        <v>643.145232</v>
       </c>
       <c r="M56" t="n">
-        <v>31.0429695888</v>
+        <v>39.7291933216</v>
       </c>
       <c r="N56" t="n">
-        <v>19.9052523664</v>
+        <v>12.9306841863</v>
       </c>
       <c r="O56" t="n">
-        <v>393.408898</v>
+        <v>377.500175</v>
       </c>
       <c r="P56" t="n">
-        <v>1548.476312</v>
+        <v>2702.491038</v>
       </c>
       <c r="Q56" t="n">
-        <v>7.5171522893</v>
+        <v>10.6124682324</v>
       </c>
       <c r="R56" t="n">
-        <v>24.8730311093</v>
+        <v>17.9367261424</v>
       </c>
       <c r="S56" t="n">
-        <v>771.87368</v>
+        <v>727.386321</v>
       </c>
       <c r="T56" t="n">
-        <v>3026.76152</v>
+        <v>5274.486873</v>
       </c>
       <c r="U56" t="n">
-        <v>9.9218685777</v>
+        <v>14.1207982641</v>
       </c>
       <c r="V56" t="n">
-        <v>4.69</v>
+        <v>3</v>
       </c>
       <c r="W56" t="n">
-        <v>1179.037299</v>
+        <v>1125.75</v>
       </c>
       <c r="X56" t="n">
-        <v>5741.154325</v>
+        <v>9152.82</v>
       </c>
       <c r="Y56" t="n">
-        <v>2.77</v>
+        <v>3.13</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.91</v>
+        <v>-1.27</v>
       </c>
       <c r="AA56" t="n">
-        <v>779.239823</v>
+        <v>746.74</v>
       </c>
       <c r="AB56" t="n">
-        <v>3776.249179</v>
+        <v>6044.8</v>
       </c>
       <c r="AC56" t="n">
-        <v>-1.54</v>
+        <v>-0.75</v>
       </c>
       <c r="AD56" t="n">
-        <v>4.3054070875</v>
+        <v>-14.0900485586</v>
       </c>
       <c r="AE56" t="n">
-        <v>34.173907</v>
+        <v>27.529996</v>
       </c>
       <c r="AF56" t="n">
-        <v>181.952042</v>
+        <v>272.518485</v>
       </c>
       <c r="AG56" t="n">
-        <v>3.0010547541</v>
+        <v>0.0334793934</v>
       </c>
       <c r="AH56" t="n">
-        <v>21.9199492628</v>
+        <v>14.8143890568</v>
       </c>
       <c r="AI56" t="n">
-        <v>951.122836</v>
+        <v>887.315835</v>
       </c>
       <c r="AJ56" t="n">
-        <v>4041.276618</v>
+        <v>6796.789921</v>
       </c>
       <c r="AK56" t="n">
-        <v>8.872628967000001</v>
+        <v>12.1587975634</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>63.58392700000002</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>379.0099999999998</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>92.35623999999996</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>377.5001750000001</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>727.386321</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>1125.75</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>746.7399999999998</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>27.52999600000001</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>887.3158349999994</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>9.5331918996</v>
+        <v>9.2585073423</v>
       </c>
       <c r="C57" t="n">
-        <v>72.815736</v>
+        <v>69.596487</v>
       </c>
       <c r="D57" t="n">
-        <v>364.876087</v>
+        <v>561.9497280000001</v>
       </c>
       <c r="E57" t="n">
-        <v>2.6482811931</v>
+        <v>3.779231456</v>
       </c>
       <c r="F57" t="n">
-        <v>11.02</v>
+        <v>10.57</v>
       </c>
       <c r="G57" t="n">
-        <v>397.61</v>
+        <v>385.53</v>
       </c>
       <c r="H57" t="n">
-        <v>2362.51</v>
+        <v>3493.55</v>
       </c>
       <c r="I57" t="n">
-        <v>12.01</v>
+        <v>11.49</v>
       </c>
       <c r="J57" t="n">
-        <v>59.6511098975</v>
+        <v>54.9737238701</v>
       </c>
       <c r="K57" t="n">
-        <v>96.06483</v>
+        <v>96.982544</v>
       </c>
       <c r="L57" t="n">
-        <v>460.957821</v>
+        <v>740.127776</v>
       </c>
       <c r="M57" t="n">
-        <v>36.1264777235</v>
+        <v>41.553779262</v>
       </c>
       <c r="N57" t="n">
-        <v>18.5582350544</v>
+        <v>23.7148644353</v>
       </c>
       <c r="O57" t="n">
-        <v>405.815003</v>
+        <v>433.505138</v>
       </c>
       <c r="P57" t="n">
-        <v>1954.291315</v>
+        <v>3135.996176</v>
       </c>
       <c r="Q57" t="n">
-        <v>9.6373545075</v>
+        <v>12.2559194615</v>
       </c>
       <c r="R57" t="n">
-        <v>23.9269239628</v>
+        <v>26.9705475978</v>
       </c>
       <c r="S57" t="n">
-        <v>797.042908</v>
+        <v>824.263155</v>
       </c>
       <c r="T57" t="n">
-        <v>3823.804428</v>
+        <v>6098.750028</v>
       </c>
       <c r="U57" t="n">
-        <v>12.5736763542</v>
+        <v>15.7033674894</v>
       </c>
       <c r="V57" t="n">
-        <v>5.02</v>
+        <v>4</v>
       </c>
       <c r="W57" t="n">
-        <v>1185.52</v>
+        <v>1074.99</v>
       </c>
       <c r="X57" t="n">
-        <v>6926.68</v>
+        <v>10227.8</v>
       </c>
       <c r="Y57" t="n">
-        <v>3.15</v>
+        <v>3.22</v>
       </c>
       <c r="Z57" t="n">
-        <v>2.23</v>
+        <v>0.66</v>
       </c>
       <c r="AA57" t="n">
-        <v>787.92</v>
+        <v>689.45</v>
       </c>
       <c r="AB57" t="n">
-        <v>4564.17</v>
+        <v>6734.25</v>
       </c>
       <c r="AC57" t="n">
-        <v>-0.91</v>
+        <v>-0.61</v>
       </c>
       <c r="AD57" t="n">
-        <v>3.4829338269</v>
+        <v>-10.7683944039</v>
       </c>
       <c r="AE57" t="n">
-        <v>33.861727</v>
+        <v>30.936744</v>
       </c>
       <c r="AF57" t="n">
-        <v>215.813769</v>
+        <v>303.455229</v>
       </c>
       <c r="AG57" t="n">
-        <v>3.0763657491</v>
+        <v>-1.1860121583</v>
       </c>
       <c r="AH57" t="n">
-        <v>20.8554310477</v>
+        <v>23.9860894216</v>
       </c>
       <c r="AI57" t="n">
-        <v>986.954342</v>
+        <v>1020.064853</v>
       </c>
       <c r="AJ57" t="n">
-        <v>5028.23096</v>
+        <v>7816.854774</v>
       </c>
       <c r="AK57" t="n">
-        <v>11.033496148</v>
+        <v>13.5725767086</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>69.59648700000002</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>385.5300000000002</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>96.98254400000008</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>433.505138</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>824.2631550000006</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>1074.98</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>689.4499999999998</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>30.93674399999998</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>1020.064853000001</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>4.2556545893</v>
+        <v>-3.8329862867</v>
       </c>
       <c r="C58" t="n">
-        <v>63.893031</v>
+        <v>60.063979</v>
       </c>
       <c r="D58" t="n">
-        <v>428.769314</v>
+        <v>622.013707</v>
       </c>
       <c r="E58" t="n">
-        <v>2.8847011611</v>
+        <v>2.991999516</v>
       </c>
       <c r="F58" t="n">
-        <v>8.140000000000001</v>
+        <v>8.67</v>
       </c>
       <c r="G58" t="n">
-        <v>366.5</v>
+        <v>378.06</v>
       </c>
       <c r="H58" t="n">
-        <v>2729.01</v>
+        <v>3871.61</v>
       </c>
       <c r="I58" t="n">
-        <v>11.47</v>
+        <v>11.21</v>
       </c>
       <c r="J58" t="n">
-        <v>46.7037616808</v>
+        <v>50.4456657772</v>
       </c>
       <c r="K58" t="n">
-        <v>89.831154</v>
+        <v>96.99562</v>
       </c>
       <c r="L58" t="n">
-        <v>550.788992</v>
+        <v>837.123396</v>
       </c>
       <c r="M58" t="n">
-        <v>37.7462560517</v>
+        <v>42.5298531893</v>
       </c>
       <c r="N58" t="n">
-        <v>13.5630524562</v>
+        <v>22.8018079247</v>
       </c>
       <c r="O58" t="n">
-        <v>370.698797</v>
+        <v>421.771947</v>
       </c>
       <c r="P58" t="n">
-        <v>2324.990863</v>
+        <v>3557.768123</v>
       </c>
       <c r="Q58" t="n">
-        <v>10.245019447</v>
+        <v>13.4105201343</v>
       </c>
       <c r="R58" t="n">
-        <v>18.8901176529</v>
+        <v>23.2633510849</v>
       </c>
       <c r="S58" t="n">
-        <v>723.29519</v>
+        <v>811.048905</v>
       </c>
       <c r="T58" t="n">
-        <v>4547.100552</v>
+        <v>6909.798933</v>
       </c>
       <c r="U58" t="n">
-        <v>13.5331676455</v>
+        <v>16.5423487903</v>
       </c>
       <c r="V58" t="n">
-        <v>3.11</v>
+        <v>3.56</v>
       </c>
       <c r="W58" t="n">
-        <v>1100.39</v>
+        <v>1095.12</v>
       </c>
       <c r="X58" t="n">
-        <v>8027.07</v>
+        <v>11322.93</v>
       </c>
       <c r="Y58" t="n">
-        <v>3.14</v>
+        <v>3.25</v>
       </c>
       <c r="Z58" t="n">
-        <v>0.78</v>
+        <v>1.06</v>
       </c>
       <c r="AA58" t="n">
-        <v>733.89</v>
+        <v>717.0700000000001</v>
       </c>
       <c r="AB58" t="n">
-        <v>5298.06</v>
+        <v>7451.32</v>
       </c>
       <c r="AC58" t="n">
-        <v>-0.68</v>
+        <v>-0.45</v>
       </c>
       <c r="AD58" t="n">
-        <v>-5.9165346046</v>
+        <v>-18.6156398675</v>
       </c>
       <c r="AE58" t="n">
-        <v>29.17472</v>
+        <v>31.257021</v>
       </c>
       <c r="AF58" t="n">
-        <v>244.988489</v>
+        <v>334.71225</v>
       </c>
       <c r="AG58" t="n">
-        <v>1.916277452</v>
+        <v>-3.1235113238</v>
       </c>
       <c r="AH58" t="n">
-        <v>16.1712087219</v>
+        <v>19.18592091</v>
       </c>
       <c r="AI58" t="n">
-        <v>881.2432209999999</v>
+        <v>979.312898</v>
       </c>
       <c r="AJ58" t="n">
-        <v>5909.474086</v>
+        <v>8796.167672</v>
       </c>
       <c r="AK58" t="n">
-        <v>11.7706275003</v>
+        <v>14.1712383105</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>60.0639789999999</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>378.0599999999999</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>96.99561999999992</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>421.7719469999997</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>811.0489049999996</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>1095.130000000001</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>717.0699999999997</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>31.25702100000001</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>979.3128979999992</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4.1686392992</v>
+        <v>-2.994358164</v>
       </c>
       <c r="C59" t="n">
-        <v>63.583927</v>
+        <v>73.131691</v>
       </c>
       <c r="D59" t="n">
-        <v>492.353241</v>
+        <v>695.145398</v>
       </c>
       <c r="E59" t="n">
-        <v>3.0487300329</v>
+        <v>2.3276621441</v>
       </c>
       <c r="F59" t="n">
-        <v>12.57</v>
+        <v>15.02</v>
       </c>
       <c r="G59" t="n">
-        <v>379</v>
+        <v>403.31</v>
       </c>
       <c r="H59" t="n">
-        <v>3108.02</v>
+        <v>4274.91</v>
       </c>
       <c r="I59" t="n">
-        <v>11.61</v>
+        <v>11.56</v>
       </c>
       <c r="J59" t="n">
-        <v>52.8517545732</v>
+        <v>57.5983026482</v>
       </c>
       <c r="K59" t="n">
-        <v>92.35624</v>
+        <v>121.362494</v>
       </c>
       <c r="L59" t="n">
-        <v>643.145232</v>
+        <v>958.48589</v>
       </c>
       <c r="M59" t="n">
-        <v>39.7291933216</v>
+        <v>44.2765256549</v>
       </c>
       <c r="N59" t="n">
-        <v>12.9306841863</v>
+        <v>20.9696859468</v>
       </c>
       <c r="O59" t="n">
-        <v>377.500175</v>
+        <v>501.363678</v>
       </c>
       <c r="P59" t="n">
-        <v>2702.491038</v>
+        <v>4059.131801</v>
       </c>
       <c r="Q59" t="n">
-        <v>10.6124682324</v>
+        <v>14.2926557513</v>
       </c>
       <c r="R59" t="n">
-        <v>17.9367261424</v>
+        <v>20.4312362564</v>
       </c>
       <c r="S59" t="n">
-        <v>727.386321</v>
+        <v>959.440456</v>
       </c>
       <c r="T59" t="n">
-        <v>5274.486873</v>
+        <v>7869.239389</v>
       </c>
       <c r="U59" t="n">
-        <v>14.1207982641</v>
+        <v>17.0029960417</v>
       </c>
       <c r="V59" t="n">
-        <v>3</v>
+        <v>6.15</v>
       </c>
       <c r="W59" t="n">
-        <v>1125.75</v>
+        <v>1128.21</v>
       </c>
       <c r="X59" t="n">
-        <v>9152.82</v>
+        <v>12451.14</v>
       </c>
       <c r="Y59" t="n">
-        <v>3.13</v>
+        <v>3.51</v>
       </c>
       <c r="Z59" t="n">
-        <v>-1.27</v>
+        <v>1.78</v>
       </c>
       <c r="AA59" t="n">
-        <v>746.74</v>
+        <v>724.91</v>
       </c>
       <c r="AB59" t="n">
-        <v>6044.8</v>
+        <v>8176.23</v>
       </c>
       <c r="AC59" t="n">
-        <v>-0.75</v>
+        <v>-0.26</v>
       </c>
       <c r="AD59" t="n">
-        <v>-14.0900485586</v>
+        <v>-17.3176185643</v>
       </c>
       <c r="AE59" t="n">
-        <v>27.529996</v>
+        <v>37.312409</v>
       </c>
       <c r="AF59" t="n">
-        <v>272.518485</v>
+        <v>372.024659</v>
       </c>
       <c r="AG59" t="n">
-        <v>0.0334793934</v>
+        <v>-4.7632744732</v>
       </c>
       <c r="AH59" t="n">
-        <v>14.8143890568</v>
+        <v>15.8751381919</v>
       </c>
       <c r="AI59" t="n">
-        <v>887.315835</v>
+        <v>1132.312855</v>
       </c>
       <c r="AJ59" t="n">
-        <v>6796.789921</v>
+        <v>9928.480527</v>
       </c>
       <c r="AK59" t="n">
-        <v>12.1587975634</v>
+        <v>14.3630270475</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>73.13169100000005</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>403.2999999999997</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>121.3624940000001</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>501.3636780000002</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>959.4404560000003</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>1128.209999999999</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>724.9099999999999</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>37.312409</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>1132.312855</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>9.2585073423</v>
+        <v>-1.7</v>
       </c>
       <c r="C60" t="n">
-        <v>69.596487</v>
+        <v>71.24902899999999</v>
       </c>
       <c r="D60" t="n">
-        <v>561.9497280000001</v>
+        <v>766.394427</v>
       </c>
       <c r="E60" t="n">
-        <v>3.779231456</v>
+        <v>1.94</v>
       </c>
       <c r="F60" t="n">
-        <v>10.57</v>
+        <v>17.48</v>
       </c>
       <c r="G60" t="n">
-        <v>385.53</v>
+        <v>397.94</v>
       </c>
       <c r="H60" t="n">
-        <v>3493.55</v>
+        <v>4672.85</v>
       </c>
       <c r="I60" t="n">
-        <v>11.49</v>
+        <v>12.04</v>
       </c>
       <c r="J60" t="n">
-        <v>54.9737238701</v>
+        <v>38.58</v>
       </c>
       <c r="K60" t="n">
-        <v>96.982544</v>
+        <v>114.914053</v>
       </c>
       <c r="L60" t="n">
-        <v>740.127776</v>
+        <v>1073.399943</v>
       </c>
       <c r="M60" t="n">
-        <v>41.553779262</v>
+        <v>43.64</v>
       </c>
       <c r="N60" t="n">
-        <v>23.7148644353</v>
+        <v>21.17</v>
       </c>
       <c r="O60" t="n">
-        <v>433.505138</v>
+        <v>472.192613</v>
       </c>
       <c r="P60" t="n">
-        <v>3135.996176</v>
+        <v>4531.324414</v>
       </c>
       <c r="Q60" t="n">
-        <v>12.2559194615</v>
+        <v>14.97</v>
       </c>
       <c r="R60" t="n">
-        <v>26.9705475978</v>
+        <v>19.95</v>
       </c>
       <c r="S60" t="n">
-        <v>824.263155</v>
+        <v>926.194846</v>
       </c>
       <c r="T60" t="n">
-        <v>6098.750028</v>
+        <v>8795.434235000001</v>
       </c>
       <c r="U60" t="n">
-        <v>15.7033674894</v>
+        <v>17.31</v>
       </c>
       <c r="V60" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="W60" t="n">
-        <v>1074.99</v>
+        <v>1112.98</v>
       </c>
       <c r="X60" t="n">
-        <v>10227.8</v>
+        <v>13564.11</v>
       </c>
       <c r="Y60" t="n">
-        <v>3.22</v>
+        <v>3.57</v>
       </c>
       <c r="Z60" t="n">
-        <v>0.66</v>
+        <v>-1.78</v>
       </c>
       <c r="AA60" t="n">
-        <v>689.45</v>
+        <v>715.04</v>
       </c>
       <c r="AB60" t="n">
-        <v>6734.25</v>
+        <v>8891.26</v>
       </c>
       <c r="AC60" t="n">
-        <v>-0.61</v>
+        <v>-0.38</v>
       </c>
       <c r="AD60" t="n">
-        <v>-10.7683944039</v>
+        <v>-16.5</v>
       </c>
       <c r="AE60" t="n">
-        <v>30.936744</v>
+        <v>34.212062</v>
       </c>
       <c r="AF60" t="n">
-        <v>303.455229</v>
+        <v>406.236721</v>
       </c>
       <c r="AG60" t="n">
-        <v>-1.1860121583</v>
+        <v>-5.88</v>
       </c>
       <c r="AH60" t="n">
-        <v>23.9860894216</v>
+        <v>15.45</v>
       </c>
       <c r="AI60" t="n">
-        <v>1020.064853</v>
+        <v>1109.342606</v>
       </c>
       <c r="AJ60" t="n">
-        <v>7816.854774</v>
+        <v>11037.823133</v>
       </c>
       <c r="AK60" t="n">
-        <v>13.5725767086</v>
+        <v>14.47</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>71.24902899999995</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>397.9400000000005</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>114.9140529999999</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>472.1926129999997</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>926.1948460000003</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>1112.970000000001</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>715.0300000000007</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>34.212062</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>1109.342606</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>10.0291474196</v>
+        <v>39.1110819585</v>
       </c>
       <c r="C61" t="n">
-        <v>66.087884</v>
+        <v>68.480919</v>
       </c>
       <c r="D61" t="n">
-        <v>663.3480029999999</v>
+        <v>68.480919</v>
       </c>
       <c r="E61" t="n">
-        <v>6.645238768</v>
-      </c>
-      <c r="F61" t="n">
-        <v>16.82</v>
-      </c>
-      <c r="G61" t="n">
-        <v>440.72</v>
-      </c>
-      <c r="H61" t="n">
-        <v>4477.93</v>
-      </c>
-      <c r="I61" t="n">
-        <v>15.83</v>
-      </c>
+        <v>39.1110819585</v>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>3.266214495</v>
+        <v>82.7521554275</v>
       </c>
       <c r="K61" t="n">
-        <v>100.163705</v>
+        <v>101.975827</v>
       </c>
       <c r="L61" t="n">
-        <v>1008.266032</v>
+        <v>101.975827</v>
       </c>
       <c r="M61" t="n">
-        <v>20.4441348573</v>
+        <v>82.7521554275</v>
       </c>
       <c r="N61" t="n">
-        <v>7.3879126437</v>
+        <v>80.7359143896</v>
       </c>
       <c r="O61" t="n">
-        <v>452.93209</v>
+        <v>450.356161</v>
       </c>
       <c r="P61" t="n">
-        <v>4198.924007</v>
+        <v>450.356161</v>
       </c>
       <c r="Q61" t="n">
-        <v>18.0212948633</v>
+        <v>80.7359143896</v>
       </c>
       <c r="R61" t="n">
-        <v>12.0741883006</v>
+        <v>73.3467944264</v>
       </c>
       <c r="S61" t="n">
-        <v>908.976477</v>
+        <v>867.577046</v>
       </c>
       <c r="T61" t="n">
-        <v>8339.80054</v>
+        <v>867.577046</v>
       </c>
       <c r="U61" t="n">
-        <v>20.695270888</v>
-      </c>
-      <c r="V61" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="W61" t="n">
-        <v>1168.16</v>
-      </c>
-      <c r="X61" t="n">
-        <v>12252.49</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>727.4400000000001</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>7774.57</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>4.26</v>
-      </c>
+        <v>73.3467944264</v>
+      </c>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr"/>
+      <c r="AB61" t="inlineStr"/>
+      <c r="AC61" t="inlineStr"/>
       <c r="AD61" t="n">
-        <v>7.1305963547</v>
+        <v>-4.0374072068</v>
       </c>
       <c r="AE61" t="n">
-        <v>33.485833</v>
+        <v>37.227544</v>
       </c>
       <c r="AF61" t="n">
-        <v>316.297216</v>
+        <v>37.227544</v>
       </c>
       <c r="AG61" t="n">
-        <v>-5.5017508322</v>
+        <v>-4.0374072068</v>
       </c>
       <c r="AH61" t="n">
-        <v>10.9432295579</v>
+        <v>56.4185860762</v>
       </c>
       <c r="AI61" t="n">
-        <v>1086.512171</v>
+        <v>1169.221293</v>
       </c>
       <c r="AJ61" t="n">
-        <v>10365.774116</v>
+        <v>1169.221293</v>
       </c>
       <c r="AK61" t="n">
-        <v>17.8427973338</v>
+        <v>56.4185860762</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>68.480919</v>
+      </c>
+      <c r="AM61" t="inlineStr"/>
+      <c r="AN61" t="n">
+        <v>101.975827</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>450.356161</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>867.577046</v>
+      </c>
+      <c r="AQ61" t="inlineStr"/>
+      <c r="AR61" t="inlineStr"/>
+      <c r="AS61" t="n">
+        <v>37.227544</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>1169.221293</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>8.880000000000001</v>
+        <v>5.5949198143</v>
       </c>
       <c r="C62" t="n">
-        <v>79.624465</v>
+        <v>41.602711</v>
       </c>
       <c r="D62" t="n">
-        <v>742.972468</v>
+        <v>110.08363</v>
       </c>
       <c r="E62" t="n">
-        <v>6.88</v>
+        <v>24.2115652183</v>
       </c>
       <c r="F62" t="n">
-        <v>13.37</v>
+        <v>16.03</v>
       </c>
       <c r="G62" t="n">
-        <v>452.76</v>
+        <v>428.91</v>
       </c>
       <c r="H62" t="n">
-        <v>4930.69</v>
+        <v>868.75</v>
       </c>
       <c r="I62" t="n">
-        <v>15.6</v>
+        <v>15.19</v>
       </c>
       <c r="J62" t="n">
-        <v>-6.04</v>
+        <v>124.0105396142</v>
       </c>
       <c r="K62" t="n">
-        <v>114.038216</v>
+        <v>76.477532</v>
       </c>
       <c r="L62" t="n">
-        <v>1122.304248</v>
+        <v>178.453359</v>
       </c>
       <c r="M62" t="n">
-        <v>17.09</v>
+        <v>98.4133071416</v>
       </c>
       <c r="N62" t="n">
-        <v>7.45</v>
+        <v>32.2595679583</v>
       </c>
       <c r="O62" t="n">
-        <v>538.7319189999999</v>
+        <v>255.715168</v>
       </c>
       <c r="P62" t="n">
-        <v>4737.655926</v>
+        <v>706.071329</v>
       </c>
       <c r="Q62" t="n">
-        <v>16.72</v>
+        <v>59.5560157877</v>
       </c>
       <c r="R62" t="n">
-        <v>12.04</v>
+        <v>41.5246778916</v>
       </c>
       <c r="S62" t="n">
-        <v>1074.911433</v>
+        <v>515.741579</v>
       </c>
       <c r="T62" t="n">
-        <v>9414.711972999999</v>
+        <v>1383.318625</v>
       </c>
       <c r="U62" t="n">
-        <v>19.64</v>
+        <v>59.9388905695</v>
       </c>
       <c r="V62" t="n">
-        <v>6.53</v>
+        <v>6.98</v>
       </c>
       <c r="W62" t="n">
-        <v>1201.84</v>
+        <v>1177.55</v>
       </c>
       <c r="X62" t="n">
-        <v>13454.34</v>
+        <v>2372.96</v>
       </c>
       <c r="Y62" t="n">
-        <v>8.06</v>
+        <v>5.84</v>
       </c>
       <c r="Z62" t="n">
-        <v>2.78</v>
+        <v>2.4</v>
       </c>
       <c r="AA62" t="n">
-        <v>749.09</v>
+        <v>748.64</v>
       </c>
       <c r="AB62" t="n">
-        <v>8523.65</v>
+        <v>1504.22</v>
       </c>
       <c r="AC62" t="n">
-        <v>4.13</v>
+        <v>1.1</v>
       </c>
       <c r="AD62" t="n">
-        <v>9.616899999999999</v>
+        <v>-16.167390738</v>
       </c>
       <c r="AE62" t="n">
-        <v>40.900718</v>
+        <v>28.250388</v>
       </c>
       <c r="AF62" t="n">
-        <v>357.197934</v>
+        <v>65.477932</v>
       </c>
       <c r="AG62" t="n">
-        <v>-3.9854</v>
+        <v>-9.676111453100001</v>
       </c>
       <c r="AH62" t="n">
-        <v>11.518</v>
+        <v>30.8161969878</v>
       </c>
       <c r="AI62" t="n">
-        <v>1262.775941</v>
+        <v>704.53368</v>
       </c>
       <c r="AJ62" t="n">
-        <v>11628.550057</v>
+        <v>1873.754973</v>
       </c>
       <c r="AK62" t="n">
-        <v>17.1215</v>
+        <v>45.6970113226</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>41.602711</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>868.75</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>76.47753200000001</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>255.715168</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>515.7415790000001</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>2372.96</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>1504.22</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>28.25038799999999</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>704.53368</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>4.12</v>
+        <v>1.3468808844</v>
       </c>
       <c r="C63" t="n">
-        <v>74.18159199999999</v>
+        <v>67.798632</v>
       </c>
       <c r="D63" t="n">
-        <v>817.15406</v>
+        <v>177.882262</v>
       </c>
       <c r="E63" t="n">
-        <v>6.62</v>
+        <v>14.3764443435</v>
       </c>
       <c r="F63" t="n">
-        <v>12.66</v>
+        <v>12.23</v>
       </c>
       <c r="G63" t="n">
-        <v>451.69</v>
+        <v>452.29</v>
       </c>
       <c r="H63" t="n">
-        <v>5382.38</v>
+        <v>1321.03</v>
       </c>
       <c r="I63" t="n">
-        <v>15.35</v>
+        <v>14.16</v>
       </c>
       <c r="J63" t="n">
-        <v>-64.19</v>
+        <v>39.4220023772</v>
       </c>
       <c r="K63" t="n">
-        <v>41.145517</v>
+        <v>108.449537</v>
       </c>
       <c r="L63" t="n">
-        <v>1163.449765</v>
+        <v>286.902896</v>
       </c>
       <c r="M63" t="n">
-        <v>8.390000000000001</v>
+        <v>71.0552167582</v>
       </c>
       <c r="N63" t="n">
-        <v>3.67</v>
+        <v>23.2938059543</v>
       </c>
       <c r="O63" t="n">
-        <v>489.534599</v>
+        <v>434.456439</v>
       </c>
       <c r="P63" t="n">
-        <v>5227.190525</v>
+        <v>1140.527768</v>
       </c>
       <c r="Q63" t="n">
-        <v>15.36</v>
+        <v>43.4811208502</v>
       </c>
       <c r="R63" t="n">
-        <v>-0.93</v>
+        <v>27.6974922048</v>
       </c>
       <c r="S63" t="n">
-        <v>917.60423</v>
+        <v>854.4268510000001</v>
       </c>
       <c r="T63" t="n">
-        <v>10332.316203</v>
+        <v>2237.745476</v>
       </c>
       <c r="U63" t="n">
-        <v>17.47</v>
+        <v>45.8758537997</v>
       </c>
       <c r="V63" t="n">
-        <v>7.52</v>
+        <v>7.66</v>
       </c>
       <c r="W63" t="n">
-        <v>1195.7</v>
+        <v>1228.25</v>
       </c>
       <c r="X63" t="n">
-        <v>14650.04</v>
+        <v>3601.21</v>
       </c>
       <c r="Y63" t="n">
-        <v>8.01</v>
+        <v>6.45</v>
       </c>
       <c r="Z63" t="n">
-        <v>4.62</v>
+        <v>5.16</v>
       </c>
       <c r="AA63" t="n">
-        <v>744.01</v>
+        <v>775.96</v>
       </c>
       <c r="AB63" t="n">
-        <v>9267.66</v>
+        <v>2280.18</v>
       </c>
       <c r="AC63" t="n">
-        <v>4.17</v>
+        <v>2.44</v>
       </c>
       <c r="AD63" t="n">
-        <v>8.8247501714</v>
+        <v>-13.488083894</v>
       </c>
       <c r="AE63" t="n">
-        <v>37.231191</v>
+        <v>35.95193</v>
       </c>
       <c r="AF63" t="n">
-        <v>394.429125</v>
+        <v>101.429862</v>
       </c>
       <c r="AG63" t="n">
-        <v>-2.9065801759</v>
+        <v>-11.0651118165</v>
       </c>
       <c r="AH63" t="n">
-        <v>-8.614578173</v>
+        <v>21.0581033273</v>
       </c>
       <c r="AI63" t="n">
-        <v>1013.77742</v>
+        <v>1096.950876</v>
       </c>
       <c r="AJ63" t="n">
-        <v>12642.327477</v>
+        <v>2970.705849</v>
       </c>
       <c r="AK63" t="n">
-        <v>14.5364201316</v>
+        <v>35.5126247481</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>67.798632</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>452.28</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>108.449537</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>434.4564389999999</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>854.4268509999999</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>1228.25</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>775.9599999999998</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>35.95193</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>1096.950876</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2021年1月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>39.1110819585</v>
+        <v>-4.2557783999</v>
       </c>
       <c r="C64" t="n">
-        <v>68.480919</v>
+        <v>64.03855900000001</v>
       </c>
       <c r="D64" t="n">
-        <v>68.480919</v>
+        <v>241.920821</v>
       </c>
       <c r="E64" t="n">
-        <v>39.1110819585</v>
-      </c>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
+        <v>8.773166358799999</v>
+      </c>
+      <c r="F64" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="G64" t="n">
+        <v>440.44</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1761.47</v>
+      </c>
+      <c r="I64" t="n">
+        <v>12.74</v>
+      </c>
       <c r="J64" t="n">
-        <v>82.7521554275</v>
+        <v>5.0397412627</v>
       </c>
       <c r="K64" t="n">
-        <v>101.975827</v>
+        <v>111.15899</v>
       </c>
       <c r="L64" t="n">
-        <v>101.975827</v>
+        <v>398.061886</v>
       </c>
       <c r="M64" t="n">
-        <v>82.7521554275</v>
+        <v>45.5165361637</v>
       </c>
       <c r="N64" t="n">
-        <v>80.7359143896</v>
+        <v>14.0013387457</v>
       </c>
       <c r="O64" t="n">
-        <v>450.356161</v>
+        <v>410.598583</v>
       </c>
       <c r="P64" t="n">
-        <v>450.356161</v>
+        <v>1551.126351</v>
       </c>
       <c r="Q64" t="n">
-        <v>80.7359143896</v>
+        <v>34.2888157176</v>
       </c>
       <c r="R64" t="n">
-        <v>73.3467944264</v>
+        <v>14.2886935963</v>
       </c>
       <c r="S64" t="n">
-        <v>867.577046</v>
+        <v>823.885555</v>
       </c>
       <c r="T64" t="n">
-        <v>867.577046</v>
+        <v>3061.631031</v>
       </c>
       <c r="U64" t="n">
-        <v>73.3467944264</v>
-      </c>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
-      <c r="Z64" t="inlineStr"/>
-      <c r="AA64" t="inlineStr"/>
-      <c r="AB64" t="inlineStr"/>
-      <c r="AC64" t="inlineStr"/>
+        <v>35.7775307795</v>
+      </c>
+      <c r="V64" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1261.09</v>
+      </c>
+      <c r="X64" t="n">
+        <v>4862.3</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>820.65</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>3100.83</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>3.37</v>
+      </c>
       <c r="AD64" t="n">
-        <v>-4.0374072068</v>
+        <v>-9.463964663800001</v>
       </c>
       <c r="AE64" t="n">
-        <v>37.227544</v>
+        <v>30.536501</v>
       </c>
       <c r="AF64" t="n">
-        <v>37.227544</v>
+        <v>131.966363</v>
       </c>
       <c r="AG64" t="n">
-        <v>-4.0374072068</v>
+        <v>-10.6996694741</v>
       </c>
       <c r="AH64" t="n">
-        <v>56.4185860762</v>
+        <v>11.3450329774</v>
       </c>
       <c r="AI64" t="n">
-        <v>1169.221293</v>
+        <v>999.84004</v>
       </c>
       <c r="AJ64" t="n">
-        <v>1169.221293</v>
+        <v>3970.545889</v>
       </c>
       <c r="AK64" t="n">
-        <v>56.4185860762</v>
+        <v>28.4898052836</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>64.03855899999999</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>440.4400000000001</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>111.15899</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>410.5985830000002</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>823.8855549999998</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>1261.09</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>820.6500000000001</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>30.536501</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>999.84004</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>5.5949198143</v>
+        <v>1.35</v>
       </c>
       <c r="C65" t="n">
-        <v>41.602711</v>
+        <v>70.59164699999999</v>
       </c>
       <c r="D65" t="n">
-        <v>110.08363</v>
+        <v>312.512468</v>
       </c>
       <c r="E65" t="n">
-        <v>24.2115652183</v>
+        <v>7</v>
       </c>
       <c r="F65" t="n">
-        <v>16.03</v>
+        <v>14.67</v>
       </c>
       <c r="G65" t="n">
-        <v>428.91</v>
+        <v>450.63</v>
       </c>
       <c r="H65" t="n">
-        <v>868.75</v>
+        <v>2212.1</v>
       </c>
       <c r="I65" t="n">
-        <v>15.19</v>
+        <v>13.13</v>
       </c>
       <c r="J65" t="n">
-        <v>124.0105396142</v>
+        <v>19.04</v>
       </c>
       <c r="K65" t="n">
-        <v>76.477532</v>
+        <v>108.737009</v>
       </c>
       <c r="L65" t="n">
-        <v>178.453359</v>
+        <v>506.798895</v>
       </c>
       <c r="M65" t="n">
-        <v>98.4133071416</v>
+        <v>38.89</v>
       </c>
       <c r="N65" t="n">
-        <v>32.2595679583</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="O65" t="n">
-        <v>255.715168</v>
+        <v>431.600071</v>
       </c>
       <c r="P65" t="n">
-        <v>706.071329</v>
+        <v>1982.726422</v>
       </c>
       <c r="Q65" t="n">
-        <v>59.5560157877</v>
+        <v>28.04</v>
       </c>
       <c r="R65" t="n">
-        <v>41.5246778916</v>
+        <v>11.96</v>
       </c>
       <c r="S65" t="n">
-        <v>515.741579</v>
+        <v>864.1592470000001</v>
       </c>
       <c r="T65" t="n">
-        <v>1383.318625</v>
+        <v>3925.790278</v>
       </c>
       <c r="U65" t="n">
-        <v>59.9388905695</v>
+        <v>29.7</v>
       </c>
       <c r="V65" t="n">
-        <v>6.98</v>
+        <v>7.25</v>
       </c>
       <c r="W65" t="n">
-        <v>1177.55</v>
+        <v>1264.54</v>
       </c>
       <c r="X65" t="n">
-        <v>2372.96</v>
+        <v>6126.84</v>
       </c>
       <c r="Y65" t="n">
-        <v>5.84</v>
+        <v>6.72</v>
       </c>
       <c r="Z65" t="n">
-        <v>2.4</v>
+        <v>3.54</v>
       </c>
       <c r="AA65" t="n">
-        <v>748.64</v>
+        <v>813.91</v>
       </c>
       <c r="AB65" t="n">
-        <v>1504.22</v>
+        <v>3914.74</v>
       </c>
       <c r="AC65" t="n">
-        <v>1.1</v>
+        <v>3.41</v>
       </c>
       <c r="AD65" t="n">
-        <v>-16.167390738</v>
+        <v>-11.7866</v>
       </c>
       <c r="AE65" t="n">
-        <v>28.250388</v>
+        <v>30.145979</v>
       </c>
       <c r="AF65" t="n">
-        <v>65.477932</v>
+        <v>162.112342</v>
       </c>
       <c r="AG65" t="n">
-        <v>-9.676111453100001</v>
+        <v>-10.9038</v>
       </c>
       <c r="AH65" t="n">
-        <v>30.8161969878</v>
+        <v>10.5911</v>
       </c>
       <c r="AI65" t="n">
-        <v>704.53368</v>
+        <v>1051.859791</v>
       </c>
       <c r="AJ65" t="n">
-        <v>1873.754973</v>
+        <v>5022.40568</v>
       </c>
       <c r="AK65" t="n">
-        <v>45.6970113226</v>
+        <v>24.2773</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>70.59164700000002</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>450.6299999999999</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>108.737009</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>431.6000709999998</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>864.1592470000001</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>1264.54</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>813.9099999999999</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>30.14597900000001</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>1051.859791</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1.3468808844</v>
+        <v>11.66</v>
       </c>
       <c r="C66" t="n">
-        <v>67.798632</v>
+        <v>81.309431</v>
       </c>
       <c r="D66" t="n">
-        <v>177.882262</v>
+        <v>393.821899</v>
       </c>
       <c r="E66" t="n">
-        <v>14.3764443435</v>
+        <v>7.93</v>
       </c>
       <c r="F66" t="n">
-        <v>12.23</v>
+        <v>32.81</v>
       </c>
       <c r="G66" t="n">
-        <v>452.29</v>
+        <v>524.15</v>
       </c>
       <c r="H66" t="n">
-        <v>1321.03</v>
+        <v>2736.25</v>
       </c>
       <c r="I66" t="n">
-        <v>14.16</v>
+        <v>16.43</v>
       </c>
       <c r="J66" t="n">
-        <v>39.4220023772</v>
+        <v>11.41</v>
       </c>
       <c r="K66" t="n">
-        <v>108.449537</v>
+        <v>107.028899</v>
       </c>
       <c r="L66" t="n">
-        <v>286.902896</v>
+        <v>613.827794</v>
       </c>
       <c r="M66" t="n">
-        <v>71.0552167582</v>
+        <v>33.16</v>
       </c>
       <c r="N66" t="n">
-        <v>23.2938059543</v>
+        <v>14.49</v>
       </c>
       <c r="O66" t="n">
-        <v>434.456439</v>
+        <v>464.624221</v>
       </c>
       <c r="P66" t="n">
-        <v>1140.527768</v>
+        <v>2447.350643</v>
       </c>
       <c r="Q66" t="n">
-        <v>43.4811208502</v>
+        <v>25.23</v>
       </c>
       <c r="R66" t="n">
-        <v>27.6974922048</v>
+        <v>14.97</v>
       </c>
       <c r="S66" t="n">
-        <v>854.4268510000001</v>
+        <v>916.337225</v>
       </c>
       <c r="T66" t="n">
-        <v>2237.745476</v>
+        <v>4842.127503</v>
       </c>
       <c r="U66" t="n">
-        <v>45.8758537997</v>
+        <v>26.63</v>
       </c>
       <c r="V66" t="n">
-        <v>7.66</v>
+        <v>18.5</v>
       </c>
       <c r="W66" t="n">
-        <v>1228.25</v>
+        <v>1406.26</v>
       </c>
       <c r="X66" t="n">
-        <v>3601.21</v>
+        <v>7533.1</v>
       </c>
       <c r="Y66" t="n">
-        <v>6.45</v>
+        <v>8.74</v>
       </c>
       <c r="Z66" t="n">
-        <v>5.16</v>
+        <v>11.37</v>
       </c>
       <c r="AA66" t="n">
-        <v>775.96</v>
+        <v>882.11</v>
       </c>
       <c r="AB66" t="n">
-        <v>2280.18</v>
+        <v>4796.85</v>
       </c>
       <c r="AC66" t="n">
-        <v>2.44</v>
+        <v>4.78</v>
       </c>
       <c r="AD66" t="n">
-        <v>-13.488083894</v>
+        <v>-8.5768</v>
       </c>
       <c r="AE66" t="n">
-        <v>35.95193</v>
+        <v>30.957472</v>
       </c>
       <c r="AF66" t="n">
-        <v>101.429862</v>
+        <v>193.069814</v>
       </c>
       <c r="AG66" t="n">
-        <v>-11.0651118165</v>
+        <v>-10.5387</v>
       </c>
       <c r="AH66" t="n">
-        <v>21.0581033273</v>
+        <v>13.6339</v>
       </c>
       <c r="AI66" t="n">
-        <v>1096.950876</v>
+        <v>1121.529478</v>
       </c>
       <c r="AJ66" t="n">
-        <v>2970.705849</v>
+        <v>6143.935158</v>
       </c>
       <c r="AK66" t="n">
-        <v>35.5126247481</v>
+        <v>22.1882</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>81.30943099999996</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>524.1500000000001</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>107.028899</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>464.6242210000003</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>916.3372249999998</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>1406.26</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>882.1100000000006</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>30.957472</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>1121.529478</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-4.2557783999</v>
+        <v>4.68</v>
       </c>
       <c r="C67" t="n">
-        <v>64.03855900000001</v>
+        <v>66.885729</v>
       </c>
       <c r="D67" t="n">
-        <v>241.920821</v>
+        <v>460.707628</v>
       </c>
       <c r="E67" t="n">
-        <v>8.773166358799999</v>
+        <v>7.45</v>
       </c>
       <c r="F67" t="n">
-        <v>8.699999999999999</v>
+        <v>11.81</v>
       </c>
       <c r="G67" t="n">
-        <v>440.44</v>
+        <v>419.08</v>
       </c>
       <c r="H67" t="n">
-        <v>1761.47</v>
+        <v>3155.33</v>
       </c>
       <c r="I67" t="n">
-        <v>12.74</v>
+        <v>15.8</v>
       </c>
       <c r="J67" t="n">
-        <v>5.0397412627</v>
+        <v>6.23</v>
       </c>
       <c r="K67" t="n">
-        <v>111.15899</v>
+        <v>95.429946</v>
       </c>
       <c r="L67" t="n">
-        <v>398.061886</v>
+        <v>709.25774</v>
       </c>
       <c r="M67" t="n">
-        <v>45.5165361637</v>
+        <v>28.77</v>
       </c>
       <c r="N67" t="n">
-        <v>14.0013387457</v>
+        <v>12.9</v>
       </c>
       <c r="O67" t="n">
-        <v>410.598583</v>
+        <v>418.521556</v>
       </c>
       <c r="P67" t="n">
-        <v>1551.126351</v>
+        <v>2865.872199</v>
       </c>
       <c r="Q67" t="n">
-        <v>34.2888157176</v>
+        <v>23.26</v>
       </c>
       <c r="R67" t="n">
-        <v>14.2886935963</v>
+        <v>14.37</v>
       </c>
       <c r="S67" t="n">
-        <v>823.885555</v>
+        <v>827.226153</v>
       </c>
       <c r="T67" t="n">
-        <v>3061.631031</v>
+        <v>5669.353656</v>
       </c>
       <c r="U67" t="n">
-        <v>35.7775307795</v>
+        <v>24.68</v>
       </c>
       <c r="V67" t="n">
-        <v>6.95</v>
+        <v>8.09</v>
       </c>
       <c r="W67" t="n">
-        <v>1261.09</v>
+        <v>1188.14</v>
       </c>
       <c r="X67" t="n">
-        <v>4862.3</v>
+        <v>8721.24</v>
       </c>
       <c r="Y67" t="n">
-        <v>6.58</v>
+        <v>8.65</v>
       </c>
       <c r="Z67" t="n">
-        <v>6.03</v>
+        <v>6.16</v>
       </c>
       <c r="AA67" t="n">
-        <v>820.65</v>
+        <v>769.05</v>
       </c>
       <c r="AB67" t="n">
-        <v>3100.83</v>
+        <v>5565.91</v>
       </c>
       <c r="AC67" t="n">
-        <v>3.37</v>
+        <v>4.97</v>
       </c>
       <c r="AD67" t="n">
-        <v>-9.463964663800001</v>
+        <v>-3.7984</v>
       </c>
       <c r="AE67" t="n">
-        <v>30.536501</v>
+        <v>28.06654</v>
       </c>
       <c r="AF67" t="n">
-        <v>131.966363</v>
+        <v>221.136354</v>
       </c>
       <c r="AG67" t="n">
-        <v>-10.6996694741</v>
+        <v>-9.736000000000001</v>
       </c>
       <c r="AH67" t="n">
-        <v>11.3450329774</v>
+        <v>13.6311</v>
       </c>
       <c r="AI67" t="n">
-        <v>999.84004</v>
+        <v>1001.379959</v>
       </c>
       <c r="AJ67" t="n">
-        <v>3970.545889</v>
+        <v>7145.315117</v>
       </c>
       <c r="AK67" t="n">
-        <v>28.4898052836</v>
+        <v>20.9121</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>66.88572900000003</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>419.0799999999999</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>95.42994599999997</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>418.5215559999997</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>827.2261530000005</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>1188.139999999999</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>769.0599999999995</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>28.06654</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>1001.379959</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1.35</v>
+        <v>3.7834939009</v>
       </c>
       <c r="C68" t="n">
-        <v>70.59164699999999</v>
+        <v>65.989621</v>
       </c>
       <c r="D68" t="n">
-        <v>312.512468</v>
+        <v>526.6972490000001</v>
       </c>
       <c r="E68" t="n">
-        <v>7</v>
+        <v>6.975481248</v>
       </c>
       <c r="F68" t="n">
-        <v>14.67</v>
+        <v>13.04</v>
       </c>
       <c r="G68" t="n">
-        <v>450.63</v>
+        <v>428.19</v>
       </c>
       <c r="H68" t="n">
-        <v>2212.1</v>
+        <v>3583.53</v>
       </c>
       <c r="I68" t="n">
-        <v>13.13</v>
+        <v>15.46</v>
       </c>
       <c r="J68" t="n">
-        <v>19.04</v>
+        <v>2.9144246236</v>
       </c>
       <c r="K68" t="n">
-        <v>108.737009</v>
+        <v>95.047893</v>
       </c>
       <c r="L68" t="n">
-        <v>506.798895</v>
+        <v>804.3056329999999</v>
       </c>
       <c r="M68" t="n">
-        <v>38.89</v>
+        <v>25.0581661779</v>
       </c>
       <c r="N68" t="n">
-        <v>9.710000000000001</v>
+        <v>12.6795406121</v>
       </c>
       <c r="O68" t="n">
-        <v>431.600071</v>
+        <v>425.365463</v>
       </c>
       <c r="P68" t="n">
-        <v>1982.726422</v>
+        <v>3291.237662</v>
       </c>
       <c r="Q68" t="n">
-        <v>28.04</v>
+        <v>21.7853312267</v>
       </c>
       <c r="R68" t="n">
-        <v>11.96</v>
+        <v>15.493889938</v>
       </c>
       <c r="S68" t="n">
-        <v>864.1592470000001</v>
+        <v>840.086757</v>
       </c>
       <c r="T68" t="n">
-        <v>3925.790278</v>
+        <v>6509.440413</v>
       </c>
       <c r="U68" t="n">
-        <v>29.7</v>
+        <v>23.4137190922</v>
       </c>
       <c r="V68" t="n">
-        <v>7.25</v>
+        <v>6.39</v>
       </c>
       <c r="W68" t="n">
-        <v>1264.54</v>
+        <v>1197.68</v>
       </c>
       <c r="X68" t="n">
-        <v>6126.84</v>
+        <v>9918.92</v>
       </c>
       <c r="Y68" t="n">
-        <v>6.72</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="Z68" t="n">
-        <v>3.54</v>
+        <v>3.02</v>
       </c>
       <c r="AA68" t="n">
-        <v>813.91</v>
+        <v>769.48</v>
       </c>
       <c r="AB68" t="n">
-        <v>3914.74</v>
+        <v>6335.39</v>
       </c>
       <c r="AC68" t="n">
-        <v>3.41</v>
+        <v>4.73</v>
       </c>
       <c r="AD68" t="n">
-        <v>-11.7866</v>
+        <v>8.818221404799999</v>
       </c>
       <c r="AE68" t="n">
-        <v>30.145979</v>
+        <v>29.957652</v>
       </c>
       <c r="AF68" t="n">
-        <v>162.112342</v>
+        <v>251.094006</v>
       </c>
       <c r="AG68" t="n">
-        <v>-10.9038</v>
+        <v>-7.8616608338</v>
       </c>
       <c r="AH68" t="n">
-        <v>10.5911</v>
+        <v>14.9623823133</v>
       </c>
       <c r="AI68" t="n">
-        <v>1051.859791</v>
+        <v>1020.094885</v>
       </c>
       <c r="AJ68" t="n">
-        <v>5022.40568</v>
+        <v>8165.410002</v>
       </c>
       <c r="AK68" t="n">
-        <v>24.2773</v>
+        <v>20.1353617815</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>65.98962100000006</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>428.2000000000003</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>95.04789299999993</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>425.3654630000001</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>840.086757</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>1197.68</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>769.4800000000005</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>29.957652</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>1020.094885</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>11.66</v>
+        <v>1.39</v>
       </c>
       <c r="C69" t="n">
-        <v>81.309431</v>
+        <v>70.56287</v>
       </c>
       <c r="D69" t="n">
-        <v>393.821899</v>
+        <v>597.260119</v>
       </c>
       <c r="E69" t="n">
-        <v>7.93</v>
+        <v>6.28</v>
       </c>
       <c r="F69" t="n">
-        <v>32.81</v>
+        <v>17.82</v>
       </c>
       <c r="G69" t="n">
-        <v>524.15</v>
+        <v>453.68</v>
       </c>
       <c r="H69" t="n">
-        <v>2736.25</v>
+        <v>4037.21</v>
       </c>
       <c r="I69" t="n">
-        <v>16.43</v>
+        <v>15.72</v>
       </c>
       <c r="J69" t="n">
-        <v>11.41</v>
+        <v>7.03</v>
       </c>
       <c r="K69" t="n">
-        <v>107.028899</v>
+        <v>103.796694</v>
       </c>
       <c r="L69" t="n">
-        <v>613.827794</v>
+        <v>908.1023269999999</v>
       </c>
       <c r="M69" t="n">
-        <v>33.16</v>
+        <v>22.7</v>
       </c>
       <c r="N69" t="n">
-        <v>14.49</v>
+        <v>4.9</v>
       </c>
       <c r="O69" t="n">
-        <v>464.624221</v>
+        <v>454.754255</v>
       </c>
       <c r="P69" t="n">
-        <v>2447.350643</v>
+        <v>3745.991917</v>
       </c>
       <c r="Q69" t="n">
-        <v>25.23</v>
+        <v>19.45</v>
       </c>
       <c r="R69" t="n">
-        <v>14.97</v>
+        <v>11.78</v>
       </c>
       <c r="S69" t="n">
-        <v>916.337225</v>
+        <v>921.38365</v>
       </c>
       <c r="T69" t="n">
-        <v>4842.127503</v>
+        <v>7430.824063</v>
       </c>
       <c r="U69" t="n">
-        <v>26.63</v>
+        <v>21.84</v>
       </c>
       <c r="V69" t="n">
-        <v>18.5</v>
+        <v>8.41</v>
       </c>
       <c r="W69" t="n">
-        <v>1406.26</v>
+        <v>1165.41</v>
       </c>
       <c r="X69" t="n">
-        <v>7533.1</v>
+        <v>11084.33</v>
       </c>
       <c r="Y69" t="n">
-        <v>8.74</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="Z69" t="n">
-        <v>11.37</v>
+        <v>3.16</v>
       </c>
       <c r="AA69" t="n">
-        <v>882.11</v>
+        <v>711.73</v>
       </c>
       <c r="AB69" t="n">
-        <v>4796.85</v>
+        <v>7047.12</v>
       </c>
       <c r="AC69" t="n">
-        <v>4.78</v>
+        <v>4.57</v>
       </c>
       <c r="AD69" t="n">
-        <v>-8.5768</v>
+        <v>2.5233</v>
       </c>
       <c r="AE69" t="n">
-        <v>30.957472</v>
+        <v>31.717377</v>
       </c>
       <c r="AF69" t="n">
-        <v>193.069814</v>
+        <v>282.811383</v>
       </c>
       <c r="AG69" t="n">
-        <v>-10.5387</v>
+        <v>-6.8029</v>
       </c>
       <c r="AH69" t="n">
-        <v>13.6339</v>
+        <v>9.1914</v>
       </c>
       <c r="AI69" t="n">
-        <v>1121.529478</v>
+        <v>1113.851943</v>
       </c>
       <c r="AJ69" t="n">
-        <v>6143.935158</v>
+        <v>9279.261945</v>
       </c>
       <c r="AK69" t="n">
-        <v>22.1882</v>
+        <v>18.7072</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>70.56286999999998</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>453.6799999999998</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>103.796694</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>454.7542549999998</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>921.3836499999998</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>1165.41</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>711.7299999999996</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>31.71737699999997</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>1113.851943000001</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>4.68</v>
+        <v>10.0291474196</v>
       </c>
       <c r="C70" t="n">
-        <v>66.885729</v>
+        <v>66.087884</v>
       </c>
       <c r="D70" t="n">
-        <v>460.707628</v>
+        <v>663.3480029999999</v>
       </c>
       <c r="E70" t="n">
-        <v>7.45</v>
+        <v>6.645238768</v>
       </c>
       <c r="F70" t="n">
-        <v>11.81</v>
+        <v>16.82</v>
       </c>
       <c r="G70" t="n">
-        <v>419.08</v>
+        <v>440.72</v>
       </c>
       <c r="H70" t="n">
-        <v>3155.33</v>
+        <v>4477.93</v>
       </c>
       <c r="I70" t="n">
-        <v>15.8</v>
+        <v>15.83</v>
       </c>
       <c r="J70" t="n">
-        <v>6.23</v>
+        <v>3.266214495</v>
       </c>
       <c r="K70" t="n">
-        <v>95.429946</v>
+        <v>100.163705</v>
       </c>
       <c r="L70" t="n">
-        <v>709.25774</v>
+        <v>1008.266032</v>
       </c>
       <c r="M70" t="n">
-        <v>28.77</v>
+        <v>20.4441348573</v>
       </c>
       <c r="N70" t="n">
-        <v>12.9</v>
+        <v>7.3879126437</v>
       </c>
       <c r="O70" t="n">
-        <v>418.521556</v>
+        <v>452.93209</v>
       </c>
       <c r="P70" t="n">
-        <v>2865.872199</v>
+        <v>4198.924007</v>
       </c>
       <c r="Q70" t="n">
-        <v>23.26</v>
+        <v>18.0212948633</v>
       </c>
       <c r="R70" t="n">
-        <v>14.37</v>
+        <v>12.0741883006</v>
       </c>
       <c r="S70" t="n">
-        <v>827.226153</v>
+        <v>908.976477</v>
       </c>
       <c r="T70" t="n">
-        <v>5669.353656</v>
+        <v>8339.80054</v>
       </c>
       <c r="U70" t="n">
-        <v>24.68</v>
+        <v>20.695270888</v>
       </c>
       <c r="V70" t="n">
-        <v>8.09</v>
+        <v>6.67</v>
       </c>
       <c r="W70" t="n">
-        <v>1188.14</v>
+        <v>1168.16</v>
       </c>
       <c r="X70" t="n">
-        <v>8721.24</v>
+        <v>12252.49</v>
       </c>
       <c r="Y70" t="n">
-        <v>8.65</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="Z70" t="n">
-        <v>6.16</v>
+        <v>1.34</v>
       </c>
       <c r="AA70" t="n">
-        <v>769.05</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="AB70" t="n">
-        <v>5565.91</v>
+        <v>7774.57</v>
       </c>
       <c r="AC70" t="n">
-        <v>4.97</v>
+        <v>4.26</v>
       </c>
       <c r="AD70" t="n">
-        <v>-3.7984</v>
+        <v>7.1305963547</v>
       </c>
       <c r="AE70" t="n">
-        <v>28.06654</v>
+        <v>33.485833</v>
       </c>
       <c r="AF70" t="n">
-        <v>221.136354</v>
+        <v>316.297216</v>
       </c>
       <c r="AG70" t="n">
-        <v>-9.736000000000001</v>
+        <v>-5.5017508322</v>
       </c>
       <c r="AH70" t="n">
-        <v>13.6311</v>
+        <v>10.9432295579</v>
       </c>
       <c r="AI70" t="n">
-        <v>1001.379959</v>
+        <v>1086.512171</v>
       </c>
       <c r="AJ70" t="n">
-        <v>7145.315117</v>
+        <v>10365.774116</v>
       </c>
       <c r="AK70" t="n">
-        <v>20.9121</v>
+        <v>17.8427973338</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>66.08788399999992</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>440.7200000000003</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>100.163705</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>452.9320899999998</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>908.9764770000002</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>1168.16</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>727.4499999999998</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>33.48583300000001</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>1086.512171</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3.7834939009</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>65.989621</v>
+        <v>79.624465</v>
       </c>
       <c r="D71" t="n">
-        <v>526.6972490000001</v>
+        <v>742.972468</v>
       </c>
       <c r="E71" t="n">
-        <v>6.975481248</v>
+        <v>6.88</v>
       </c>
       <c r="F71" t="n">
-        <v>13.04</v>
+        <v>13.37</v>
       </c>
       <c r="G71" t="n">
-        <v>428.19</v>
+        <v>452.76</v>
       </c>
       <c r="H71" t="n">
-        <v>3583.53</v>
+        <v>4930.69</v>
       </c>
       <c r="I71" t="n">
-        <v>15.46</v>
+        <v>15.6</v>
       </c>
       <c r="J71" t="n">
-        <v>2.9144246236</v>
+        <v>-6.04</v>
       </c>
       <c r="K71" t="n">
-        <v>95.047893</v>
+        <v>114.038216</v>
       </c>
       <c r="L71" t="n">
-        <v>804.3056329999999</v>
+        <v>1122.304248</v>
       </c>
       <c r="M71" t="n">
-        <v>25.0581661779</v>
+        <v>17.09</v>
       </c>
       <c r="N71" t="n">
-        <v>12.6795406121</v>
+        <v>7.45</v>
       </c>
       <c r="O71" t="n">
-        <v>425.365463</v>
+        <v>538.7319189999999</v>
       </c>
       <c r="P71" t="n">
-        <v>3291.237662</v>
+        <v>4737.655926</v>
       </c>
       <c r="Q71" t="n">
-        <v>21.7853312267</v>
+        <v>16.72</v>
       </c>
       <c r="R71" t="n">
-        <v>15.493889938</v>
+        <v>12.04</v>
       </c>
       <c r="S71" t="n">
-        <v>840.086757</v>
+        <v>1074.911433</v>
       </c>
       <c r="T71" t="n">
-        <v>6509.440413</v>
+        <v>9414.711972999999</v>
       </c>
       <c r="U71" t="n">
-        <v>23.4137190922</v>
+        <v>19.64</v>
       </c>
       <c r="V71" t="n">
-        <v>6.39</v>
+        <v>6.53</v>
       </c>
       <c r="W71" t="n">
-        <v>1197.68</v>
+        <v>1201.84</v>
       </c>
       <c r="X71" t="n">
-        <v>9918.92</v>
+        <v>13454.34</v>
       </c>
       <c r="Y71" t="n">
-        <v>8.369999999999999</v>
+        <v>8.06</v>
       </c>
       <c r="Z71" t="n">
-        <v>3.02</v>
+        <v>2.78</v>
       </c>
       <c r="AA71" t="n">
-        <v>769.48</v>
+        <v>749.09</v>
       </c>
       <c r="AB71" t="n">
-        <v>6335.39</v>
+        <v>8523.65</v>
       </c>
       <c r="AC71" t="n">
-        <v>4.73</v>
+        <v>4.13</v>
       </c>
       <c r="AD71" t="n">
-        <v>8.818221404799999</v>
+        <v>9.616899999999999</v>
       </c>
       <c r="AE71" t="n">
-        <v>29.957652</v>
+        <v>40.900718</v>
       </c>
       <c r="AF71" t="n">
-        <v>251.094006</v>
+        <v>357.197934</v>
       </c>
       <c r="AG71" t="n">
-        <v>-7.8616608338</v>
+        <v>-3.9854</v>
       </c>
       <c r="AH71" t="n">
-        <v>14.9623823133</v>
+        <v>11.518</v>
       </c>
       <c r="AI71" t="n">
-        <v>1020.094885</v>
+        <v>1262.775941</v>
       </c>
       <c r="AJ71" t="n">
-        <v>8165.410002</v>
+        <v>11628.550057</v>
       </c>
       <c r="AK71" t="n">
-        <v>20.1353617815</v>
+        <v>17.1215</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>79.6244650000001</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>452.7599999999993</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>114.0382159999999</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>538.7319190000007</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>1074.911432999999</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>1201.85</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>749.0799999999999</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>40.90071799999998</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>1262.775941</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1.39</v>
+        <v>4.12</v>
       </c>
       <c r="C72" t="n">
-        <v>70.56287</v>
+        <v>74.18159199999999</v>
       </c>
       <c r="D72" t="n">
-        <v>597.260119</v>
+        <v>817.15406</v>
       </c>
       <c r="E72" t="n">
-        <v>6.28</v>
+        <v>6.62</v>
       </c>
       <c r="F72" t="n">
-        <v>17.82</v>
+        <v>12.66</v>
       </c>
       <c r="G72" t="n">
-        <v>453.68</v>
+        <v>451.69</v>
       </c>
       <c r="H72" t="n">
-        <v>4037.21</v>
+        <v>5382.38</v>
       </c>
       <c r="I72" t="n">
-        <v>15.72</v>
+        <v>15.35</v>
       </c>
       <c r="J72" t="n">
-        <v>7.03</v>
+        <v>-64.19</v>
       </c>
       <c r="K72" t="n">
-        <v>103.796694</v>
+        <v>41.145517</v>
       </c>
       <c r="L72" t="n">
-        <v>908.1023269999999</v>
+        <v>1163.449765</v>
       </c>
       <c r="M72" t="n">
-        <v>22.7</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="N72" t="n">
-        <v>4.9</v>
+        <v>3.67</v>
       </c>
       <c r="O72" t="n">
-        <v>454.754255</v>
+        <v>489.534599</v>
       </c>
       <c r="P72" t="n">
-        <v>3745.991917</v>
+        <v>5227.190525</v>
       </c>
       <c r="Q72" t="n">
-        <v>19.45</v>
+        <v>15.36</v>
       </c>
       <c r="R72" t="n">
-        <v>11.78</v>
+        <v>-0.93</v>
       </c>
       <c r="S72" t="n">
-        <v>921.38365</v>
+        <v>917.60423</v>
       </c>
       <c r="T72" t="n">
-        <v>7430.824063</v>
+        <v>10332.316203</v>
       </c>
       <c r="U72" t="n">
-        <v>21.84</v>
+        <v>17.47</v>
       </c>
       <c r="V72" t="n">
-        <v>8.41</v>
+        <v>7.52</v>
       </c>
       <c r="W72" t="n">
-        <v>1165.41</v>
+        <v>1195.7</v>
       </c>
       <c r="X72" t="n">
-        <v>11084.33</v>
+        <v>14650.04</v>
       </c>
       <c r="Y72" t="n">
-        <v>8.369999999999999</v>
+        <v>8.01</v>
       </c>
       <c r="Z72" t="n">
-        <v>3.16</v>
+        <v>4.62</v>
       </c>
       <c r="AA72" t="n">
-        <v>711.73</v>
+        <v>744.01</v>
       </c>
       <c r="AB72" t="n">
-        <v>7047.12</v>
+        <v>9267.66</v>
       </c>
       <c r="AC72" t="n">
-        <v>4.57</v>
+        <v>4.17</v>
       </c>
       <c r="AD72" t="n">
-        <v>2.5233</v>
+        <v>8.8247501714</v>
       </c>
       <c r="AE72" t="n">
-        <v>31.717377</v>
+        <v>37.231191</v>
       </c>
       <c r="AF72" t="n">
-        <v>282.811383</v>
+        <v>394.429125</v>
       </c>
       <c r="AG72" t="n">
-        <v>-6.8029</v>
+        <v>-2.9065801759</v>
       </c>
       <c r="AH72" t="n">
-        <v>9.1914</v>
+        <v>-8.614578173</v>
       </c>
       <c r="AI72" t="n">
-        <v>1113.851943</v>
+        <v>1013.77742</v>
       </c>
       <c r="AJ72" t="n">
-        <v>9279.261945</v>
+        <v>12642.327477</v>
       </c>
       <c r="AK72" t="n">
-        <v>18.7072</v>
+        <v>14.5364201316</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>74.18159199999991</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>451.6900000000005</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>41.14551700000015</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>489.5345989999996</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>917.6042300000008</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>1195.700000000001</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>744.0100000000002</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>37.23119100000002</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>1013.77742</v>
       </c>
     </row>
   </sheetData>
